--- a/System Analysis/WorkingRepository/Group1/StoreConfigurationData.xlsx
+++ b/System Analysis/WorkingRepository/Group1/StoreConfigurationData.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Exported Requirements" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="__DdeLink__1724_1104613906" localSheetId="2">Requirements!$B$14</definedName>
+    <definedName name="__DdeLink__1724_1104613906" localSheetId="2">Requirements!$B$37</definedName>
     <definedName name="_GoBack" localSheetId="0">Description!$D$90</definedName>
     <definedName name="h.gjdgxs" localSheetId="0">Description!$A$16</definedName>
   </definedNames>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="452">
   <si>
     <t>Authors:</t>
   </si>
@@ -829,9 +829,6 @@
     <t>Main brake pipe pressure, or fictive main brake pipe pressure (kPa)</t>
   </si>
   <si>
-    <t>RadioMsgRepetitionDelay</t>
-  </si>
-  <si>
     <t>Waiting time before radio message repetition</t>
   </si>
   <si>
@@ -904,9 +901,6 @@
     <t>dV_sbi_min</t>
   </si>
   <si>
-    <t>dV_svi_max</t>
-  </si>
-  <si>
     <t>5.5 km/h</t>
   </si>
   <si>
@@ -1160,13 +1154,338 @@
   </si>
   <si>
     <t>Fixed Values :</t>
+  </si>
+  <si>
+    <t>3.13.2.2.1.1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Brake build up time and speed dependent deceleration. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TrainData (cf. 3.13.2.2.1.3)</t>
+    </r>
+  </si>
+  <si>
+    <t>BrakingModels</t>
+  </si>
+  <si>
+    <t>Speed Dependent Deceleration</t>
+  </si>
+  <si>
+    <t>The deceleration due to braking shall be given as a step function of the speed.</t>
+  </si>
+  <si>
+    <t>A_brake_emergency(i)</t>
+  </si>
+  <si>
+    <t>A_brake_service(i)</t>
+  </si>
+  <si>
+    <t>A_brake_normal_service(i)</t>
+  </si>
+  <si>
+    <t>A_SB01</t>
+  </si>
+  <si>
+    <t>A_SB12</t>
+  </si>
+  <si>
+    <t>Brake Build Up Time Model</t>
+  </si>
+  <si>
+    <t>The model for the brake build up time shall be given as a step function.</t>
+  </si>
+  <si>
+    <t>Brake Position</t>
+  </si>
+  <si>
+    <t>Brake Percentage</t>
+  </si>
+  <si>
+    <t>Special Brakes</t>
+  </si>
+  <si>
+    <t>T_brake_emergency</t>
+  </si>
+  <si>
+    <t>T_brake_service</t>
+  </si>
+  <si>
+    <t>3.13.2.2.6.2</t>
+  </si>
+  <si>
+    <t>All train related inputs except the fixed values are acquired as Train Data (see 3.18.3.2 items b) c) and d)).</t>
+  </si>
+  <si>
+    <t>Which means that all fixed train related inputs shall be acquired as parameters.</t>
+  </si>
+  <si>
+    <t>The speed and distance monitoring shall take into account the fixed values defined in A3.1 that are related to speed and distance monitoring.</t>
+  </si>
+  <si>
+    <t>Subset26 (3.1.1.1.1.1)</t>
+  </si>
+  <si>
+    <t>In case no MA request parameters are stored on-board and following an MA request no MA has been received, the request shall be repeated with a repetition cycle according to a fixed value (see appendix).</t>
+  </si>
+  <si>
+    <t>3.8.2.6</t>
+  </si>
+  <si>
+    <t>This is TCYCRQSTD.</t>
+  </si>
+  <si>
+    <t>A3.1, 3.8.2.6</t>
+  </si>
+  <si>
+    <t>For the calculation of the EBI limit: the estimated acceleration shall be set to “zero”, the compensation of the speed measurement inaccuracy, if not inhibited, shall be set to a Fixed Value (see Appendix A3.1).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.13.2.2.1.1 The train related inputs to be considered for the speed and distance monitoring are:
+a) Traction model
+b) Braking models (brake build up time and speed dependent deceleration) or brake percentage
+c) Brake position
+d) Special brakes
+e) Service brake interface
+f) Traction cut-off interface
+g) On-board correction factors
+h) Nominal rotating mass
+i) Train length
+j) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fixed values related to speed and distance monitoring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+k)  Train related speed restriction (i.e. the maximum train speed)</t>
+    </r>
+  </si>
+  <si>
+    <t>3.11.11.4</t>
+  </si>
+  <si>
+    <t>3.13.2.2.1.2</t>
+  </si>
+  <si>
+    <t>It shall be possible to define the nominal rotating mass to be used for compensating the gradient, instead of the two related fixed values defined in A3.1.</t>
+  </si>
+  <si>
+    <t>3.13.2.2.12.1</t>
+  </si>
+  <si>
+    <t>A3.1, 3.11.11.4</t>
+  </si>
+  <si>
+    <t>dV_ebi_min, dV_ebi_max, V_ebi_min and V_ebi_max are defined as fixed values (See Appendix A3.1)</t>
+  </si>
+  <si>
+    <t>3.13.9.2.4</t>
+  </si>
+  <si>
+    <t>A3.1, 3.13.9.2.4</t>
+  </si>
+  <si>
+    <t>V_ebi_min</t>
+  </si>
+  <si>
+    <t>V_ebi_max</t>
+  </si>
+  <si>
+    <t>For dV_sbi, the same formula as for dV_ebi shall apply, dV_sbi_min, dV_sbi_max, V_sbi_min and V_sbi_max being also defined as fixed values (See Appendix A3.1)</t>
+  </si>
+  <si>
+    <t>3.13.9.2.5</t>
+  </si>
+  <si>
+    <t>A3.1, 3.13.9.2.5</t>
+  </si>
+  <si>
+    <t>dV_sbi_max</t>
+  </si>
+  <si>
+    <t>For dV_warning, the same formula as for dV_ebi shall apply, dV_warning_min, dV_warning_max, V_warning_min and V_warning_max being also defined as fixed values (See Appendix A3.1)</t>
+  </si>
+  <si>
+    <t>3.13.9.2.6</t>
+  </si>
+  <si>
+    <t>A3.1, 3.13.9.2.6</t>
+  </si>
+  <si>
+    <t>If both the service brake command and the service brake feedback are available for use, T_bs1 and T_bs2 shall be firstly set to T_bs. When the service brake is used by the driver, they shall then be reduced progressively and possibly locked to the respective fixed values of 0s and T_bs2_locked, until the target location is passed or until the target speed monitoring is left; they are then reset again to T_bs (see detailed algorithm in Appendix A3.10).</t>
+  </si>
+  <si>
+    <t>3.13.9.3.3.4</t>
+  </si>
+  <si>
+    <t>3.13.2.2.6.2, 3.13.9.3.3.4</t>
+  </si>
+  <si>
+    <t>T_warning is defined as a fixed value (refer to A3.1).</t>
+  </si>
+  <si>
+    <t>3.13.9.3.4.2</t>
+  </si>
+  <si>
+    <t>A3.1, 3.13.9.3.4.2</t>
+  </si>
+  <si>
+    <t>T_driver is defined as a fixed value (refer to A3.1).</t>
+  </si>
+  <si>
+    <t>3.13.9.3.5.2</t>
+  </si>
+  <si>
+    <t>A3.1, 3.13.9.3.5.2</t>
+  </si>
+  <si>
+    <t>Note: When the release speed is given as a fixed value from trackside, the ERTMS/ETCS system cannot be responsible for stopping the train in rear of the Supervised Location. In this case, it is the full responsibility of the infrastructure manager to set the appropriate release speed with regard to the risk of passing the Supervised Location.</t>
+  </si>
+  <si>
+    <t>Subset26 (3.13.9.4.5)</t>
+  </si>
+  <si>
+    <t>Subset26 (3.13.2.2.10.1)</t>
+  </si>
+  <si>
+    <t>A3.1, 3.13.9.4.5</t>
+  </si>
+  <si>
+    <t>T_preindication is defined as a fixed value (refer to A3.1).</t>
+  </si>
+  <si>
+    <t>3.13.9.5.7</t>
+  </si>
+  <si>
+    <t>ReleaseSpeed</t>
+  </si>
+  <si>
+    <t>Release Speed given as fixed value from trackside.</t>
+  </si>
+  <si>
+    <t>3.13.9.4.5</t>
+  </si>
+  <si>
+    <t>Following information shall remain stored on-board for a distance defined by a fixed value in rear of the min safe rear end position of the train:
+• location dependent static speed restrictions , i.e., SSP, ASP, TSR, LX SR, PBD SR (see 3.11.2.2)
+• gradient information,
+• reduced adhesion information received from trackside,
+• Track condition “Big metal masses”.</t>
+  </si>
+  <si>
+    <t>A3.6.2.1</t>
+  </si>
+  <si>
+    <t>A3.1, A3.6.2.1</t>
+  </si>
+  <si>
+    <t>3.13.2.2.10</t>
+  </si>
+  <si>
+    <t>A3.1, 3.13.2.2.10.1</t>
+  </si>
+  <si>
+    <t>a) The on-board shall request the set-up of a safe radio connection with the trackside. If this request is part of an on-going Start of Mission procedure, it shall be repeated until successful or a defined number of times (see Appendix A3.1).</t>
+  </si>
+  <si>
+    <t>A3.1, 3.5.3.7</t>
+  </si>
+  <si>
+    <t>If the safe radio connection is not re-established after the defined time (as defined in A3.1), both, on-board equipment and trackside, shall consider the session as terminated.</t>
+  </si>
+  <si>
+    <t>3.5.4.2.1</t>
+  </si>
+  <si>
+    <t>A3.1, 3.5.4.2.1</t>
+  </si>
+  <si>
+    <t>3.5.3.7</t>
+  </si>
+  <si>
+    <t>5.7.2.4</t>
+  </si>
+  <si>
+    <t>5.7.3.7</t>
+  </si>
+  <si>
+    <t>5.9.2.4</t>
+  </si>
+  <si>
+    <t>5.9.3.8</t>
+  </si>
+  <si>
+    <t>5.10.4.2</t>
+  </si>
+  <si>
+    <t>5.19.2.4</t>
+  </si>
+  <si>
+    <t>5.19.3.8</t>
+  </si>
+  <si>
+    <t>If the driver does not acknowledge within the driver acknowledgement time (refer to Appendix A3.1) after the change to SH mode, the service brake command shall be triggered. The command shall be released as soon as the driver acknowledges (unless the command was triggered also for other reasons).</t>
+  </si>
+  <si>
+    <t>If, in this case, the driver does not acknowledge within the driver acknowledgement time (refer to Appendix A3.1) after the change to SH mode, the service brake command shall be triggered. The command shall be released as soon as the driver acknowledges (unless the command was triggered also for other reasons).</t>
+  </si>
+  <si>
+    <t>If the driver has not acknowledged after the driver acknowledgement time (refer to Appendix A3.1), the service brake command shall be triggered. The brake command is released when the driver acknowledges, except if brakes are also applied for another reason(s).</t>
+  </si>
+  <si>
+    <t>If, in this case, the driver does not acknowledge within the driver acknowledgement time (refer to Appendix A3.1) after the change to OS mode, the service brake command shall be triggered. The command shall be released as soon as the driver acknowledges (unless the command was triggered also for other reasons).</t>
+  </si>
+  <si>
+    <t>If the driver has not yet acknowledged within the driver acknowledgement time (refer to Appendix A3.1) after the level transition, a service brake command shall be initiated.</t>
+  </si>
+  <si>
+    <t>If, in this case, the driver does not acknowledge within the driver acknowledgement time (refer to Appendix A3.1) after the change to LS mode, the service brake command shall be triggered. The command shall be released as soon as the driver acknowledges (unless the command was triggered also for other reasons).</t>
+  </si>
+  <si>
+    <t>A3.1, 5.7.2.4, 5.7.3.7, 5.9.2.4, 5.9.3.8, 5.10.4.2, 5.19.2.4, 5.19.3.8</t>
+  </si>
+  <si>
+    <t>Note: The purpose of the “connection status” timer is to avoid distracting the driver for any short disturbance of the safe radio connection.</t>
+  </si>
+  <si>
+    <t>3.5.7.2.1</t>
+  </si>
+  <si>
+    <t>A3.1, 3.5.7.2, 3.5.7.3, 3.5.7.4, 3.5.7.6.1</t>
+  </si>
+  <si>
+    <t>A3.1, 3.13.9.5.7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1238,6 +1557,13 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1290,6 +1616,20 @@
       <color rgb="FF00000A"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1741,7 +2081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1805,6 +2145,203 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1820,6 +2357,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1832,201 +2375,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2337,15 +2689,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="1"/>
@@ -2477,1016 +2829,979 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75">
-      <c r="A35" s="32"/>
+      <c r="A35" s="23"/>
     </row>
     <row r="36" spans="1:6" ht="15.75">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A37" s="32"/>
+      <c r="A37" s="23"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A38" s="56"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="60" t="s">
+      <c r="A38" s="76"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="61"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="81"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A39" s="56"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="63" t="s">
+      <c r="A39" s="76"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="62"/>
-      <c r="F39" s="64"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="84"/>
     </row>
     <row r="40" spans="1:6" ht="34.5" thickBot="1">
-      <c r="A40" s="65"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="34" t="s">
+      <c r="A40" s="85"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="34" t="s">
+      <c r="F40" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="68" t="s">
+      <c r="E41" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="68" t="s">
+      <c r="F41" s="88" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="27" thickBot="1">
-      <c r="A42" s="69"/>
-      <c r="B42" s="36" t="s">
+      <c r="A42" s="89"/>
+      <c r="B42" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="69"/>
-      <c r="D42" s="36" t="s">
+      <c r="C42" s="89"/>
+      <c r="D42" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
     </row>
     <row r="43" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="D43" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="40" t="s">
+      <c r="F43" s="31" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="39" thickBot="1">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F44" s="40" t="s">
+      <c r="F44" s="31" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A45" s="71" t="s">
+      <c r="A45" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="75" t="s">
+      <c r="C45" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="77" t="s">
+      <c r="D45" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="77" t="s">
+      <c r="E45" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="42" t="s">
+      <c r="F45" s="33" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="39" thickBot="1">
-      <c r="A46" s="72"/>
-      <c r="B46" s="74"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="43" t="s">
+      <c r="A46" s="60"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="39" thickBot="1">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="D47" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="40" t="s">
+      <c r="F47" s="31" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="64.5" thickBot="1">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="43" t="s">
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1">
-      <c r="A49" s="71" t="s">
+      <c r="A49" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="73" t="s">
+      <c r="B49" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="75" t="s">
+      <c r="C49" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="44" t="s">
+      <c r="D49" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="44" t="s">
+      <c r="E49" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F49" s="44" t="s">
+      <c r="F49" s="35" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A50" s="72"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="45" t="s">
+      <c r="A50" s="60"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E50" s="45" t="s">
+      <c r="E50" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="F50" s="45" t="s">
+      <c r="F50" s="36" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="C51" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F51" s="40" t="s">
+      <c r="F51" s="31" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="128.25" thickBot="1">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D52" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E52" s="40" t="s">
+      <c r="E52" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="40" t="s">
+      <c r="F52" s="31" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="77.25" thickBot="1">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="40" t="s">
+      <c r="E53" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="F53" s="40" t="s">
+      <c r="F53" s="31" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="90" thickBot="1">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="39" t="s">
+      <c r="C54" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40" t="s">
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="E55" s="40" t="s">
+      <c r="E55" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="F55" s="40" t="s">
+      <c r="F55" s="31" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="64.5" thickBot="1">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="39" t="s">
+      <c r="C56" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="46" t="s">
+      <c r="D56" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="E56" s="47" t="s">
+      <c r="E56" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F56" s="46" t="s">
+      <c r="F56" s="37" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="77.25" thickBot="1">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="46" t="s">
+      <c r="D57" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="E57" s="47" t="s">
+      <c r="E57" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="37" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="115.5" thickBot="1">
-      <c r="A58" s="37" t="s">
+      <c r="A58" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="C58" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="46" t="s">
+      <c r="D58" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="E58" s="48" t="s">
+      <c r="E58" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="F58" s="49" t="s">
+      <c r="F58" s="40" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A59" s="37" t="s">
+      <c r="A59" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D59" s="40" t="s">
+      <c r="D59" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="E59" s="40" t="s">
+      <c r="E59" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="40" t="s">
+      <c r="F59" s="31" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="102.75" thickBot="1">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C60" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="D60" s="40" t="s">
+      <c r="D60" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="E60" s="40" t="s">
+      <c r="E60" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="F60" s="40" t="s">
+      <c r="F60" s="31" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="90" thickBot="1">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="39" t="s">
+      <c r="C61" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D61" s="50" t="s">
+      <c r="D61" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="E61" s="42" t="s">
+      <c r="E61" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="F61" s="42" t="s">
+      <c r="F61" s="33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="90" thickBot="1">
-      <c r="A62" s="37" t="s">
+      <c r="A62" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="39" t="s">
+      <c r="C62" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D62" s="51" t="s">
+      <c r="D62" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="E62" s="52" t="s">
+      <c r="E62" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="F62" s="51" t="s">
+      <c r="F62" s="42" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="64.5" thickBot="1">
-      <c r="A63" s="37" t="s">
+      <c r="A63" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="39" t="s">
+      <c r="C63" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="40" t="s">
+      <c r="D63" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="40" t="s">
+      <c r="E63" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="F63" s="40" t="s">
+      <c r="F63" s="31" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="102.75" thickBot="1">
-      <c r="A64" s="37" t="s">
+      <c r="A64" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="41" t="s">
+      <c r="C64" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="D64" s="40" t="s">
+      <c r="D64" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="E64" s="40" t="s">
+      <c r="E64" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="F64" s="40" t="s">
+      <c r="F64" s="31" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="77.25" thickBot="1">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="D65" s="40" t="s">
+      <c r="D65" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="E65" s="40" t="s">
+      <c r="E65" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="F65" s="40" t="s">
+      <c r="F65" s="31" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="64.5" thickBot="1">
-      <c r="A66" s="37" t="s">
+      <c r="A66" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="C66" s="39" t="s">
+      <c r="C66" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D66" s="40" t="s">
+      <c r="D66" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="40" t="s">
+      <c r="E66" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="F66" s="40" t="s">
+      <c r="F66" s="31" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="77.25" thickBot="1">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="39" t="s">
+      <c r="C67" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D67" s="40" t="s">
+      <c r="D67" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E67" s="40" t="s">
+      <c r="E67" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="F67" s="40" t="s">
+      <c r="F67" s="31" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="77.25" thickBot="1">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="D68" s="54" t="s">
+      <c r="D68" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="E68" s="54" t="s">
+      <c r="E68" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="F68" s="43" t="s">
+      <c r="F68" s="34" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="77.25" thickBot="1">
-      <c r="A69" s="37" t="s">
+      <c r="A69" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C69" s="39">
+      <c r="C69" s="30">
         <v>0</v>
       </c>
-      <c r="D69" s="54" t="s">
+      <c r="D69" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="E69" s="43" t="s">
+      <c r="E69" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="F69" s="43" t="s">
+      <c r="F69" s="34" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A70" s="71" t="s">
+      <c r="A70" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="B70" s="73" t="s">
+      <c r="B70" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="C70" s="75">
+      <c r="C70" s="63">
         <v>9999999.9900000002</v>
       </c>
-      <c r="D70" s="81" t="s">
+      <c r="D70" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="E70" s="84" t="s">
+      <c r="E70" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="F70" s="50">
+      <c r="F70" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="25.5">
-      <c r="A71" s="70"/>
-      <c r="B71" s="79"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="50" t="s">
+      <c r="A71" s="69"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="41" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A72" s="72"/>
-      <c r="B72" s="74"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="86"/>
-      <c r="F72" s="43" t="s">
+      <c r="A72" s="60"/>
+      <c r="B72" s="62"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="68"/>
+      <c r="F72" s="34" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="90" thickBot="1">
-      <c r="A73" s="37" t="s">
+      <c r="A73" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B73" s="38" t="s">
+      <c r="B73" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="C73" s="39" t="s">
+      <c r="C73" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="D73" s="54" t="s">
+      <c r="D73" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="E73" s="43" t="s">
+      <c r="E73" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="F73" s="43" t="s">
+      <c r="F73" s="34" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="38.25">
-      <c r="A74" s="71" t="s">
+      <c r="A74" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="B74" s="73" t="s">
+      <c r="B74" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="C74" s="75" t="s">
+      <c r="C74" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="D74" s="81" t="s">
+      <c r="D74" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="E74" s="84" t="s">
+      <c r="E74" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="F74" s="50" t="s">
+      <c r="F74" s="41" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="51">
-      <c r="A75" s="70"/>
-      <c r="B75" s="79"/>
-      <c r="C75" s="80"/>
-      <c r="D75" s="82"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="50" t="s">
+      <c r="A75" s="69"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="73"/>
+      <c r="F75" s="41" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="51">
-      <c r="A76" s="70"/>
-      <c r="B76" s="79"/>
-      <c r="C76" s="80"/>
-      <c r="D76" s="82"/>
-      <c r="E76" s="85"/>
-      <c r="F76" s="50" t="s">
+      <c r="A76" s="69"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="41" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="51">
-      <c r="A77" s="70"/>
-      <c r="B77" s="79"/>
-      <c r="C77" s="80"/>
-      <c r="D77" s="82"/>
-      <c r="E77" s="85"/>
-      <c r="F77" s="50" t="s">
+      <c r="A77" s="69"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="41" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A78" s="72"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="83"/>
-      <c r="E78" s="86"/>
-      <c r="F78" s="43" t="s">
+      <c r="A78" s="60"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="68"/>
+      <c r="F78" s="34" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="38.25">
-      <c r="A79" s="71" t="s">
+      <c r="A79" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="B79" s="73" t="s">
+      <c r="B79" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="C79" s="75" t="s">
+      <c r="C79" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="D79" s="81" t="s">
+      <c r="D79" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="E79" s="84" t="s">
+      <c r="E79" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="F79" s="50" t="s">
+      <c r="F79" s="41" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="38.25">
-      <c r="A80" s="70"/>
-      <c r="B80" s="79"/>
-      <c r="C80" s="80"/>
-      <c r="D80" s="82"/>
-      <c r="E80" s="85"/>
-      <c r="F80" s="50" t="s">
+      <c r="A80" s="69"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="41" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="38.25">
-      <c r="A81" s="70"/>
-      <c r="B81" s="79"/>
-      <c r="C81" s="80"/>
-      <c r="D81" s="82"/>
-      <c r="E81" s="85"/>
-      <c r="F81" s="50" t="s">
+      <c r="A81" s="69"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="71"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="73"/>
+      <c r="F81" s="41" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="39" thickBot="1">
-      <c r="A82" s="72"/>
-      <c r="B82" s="74"/>
-      <c r="C82" s="76"/>
-      <c r="D82" s="83"/>
-      <c r="E82" s="86"/>
-      <c r="F82" s="43" t="s">
+      <c r="A82" s="60"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="68"/>
+      <c r="F82" s="34" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="38.25">
-      <c r="A83" s="71" t="s">
+      <c r="A83" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="B83" s="73" t="s">
+      <c r="B83" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="C83" s="75" t="s">
+      <c r="C83" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="D83" s="81" t="s">
+      <c r="D83" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="E83" s="84" t="s">
+      <c r="E83" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="F83" s="50" t="s">
+      <c r="F83" s="41" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="38.25">
-      <c r="A84" s="70"/>
-      <c r="B84" s="79"/>
-      <c r="C84" s="80"/>
-      <c r="D84" s="82"/>
-      <c r="E84" s="85"/>
-      <c r="F84" s="50" t="s">
+      <c r="A84" s="69"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="71"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="73"/>
+      <c r="F84" s="41" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="38.25">
-      <c r="A85" s="70"/>
-      <c r="B85" s="79"/>
-      <c r="C85" s="80"/>
-      <c r="D85" s="82"/>
-      <c r="E85" s="85"/>
-      <c r="F85" s="50" t="s">
+      <c r="A85" s="69"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="73"/>
+      <c r="F85" s="41" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="38.25">
-      <c r="A86" s="70"/>
-      <c r="B86" s="79"/>
-      <c r="C86" s="80"/>
-      <c r="D86" s="82"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="50" t="s">
+      <c r="A86" s="69"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="73"/>
+      <c r="F86" s="41" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="39" thickBot="1">
-      <c r="A87" s="72"/>
-      <c r="B87" s="74"/>
-      <c r="C87" s="76"/>
-      <c r="D87" s="83"/>
-      <c r="E87" s="86"/>
-      <c r="F87" s="43" t="s">
+      <c r="A87" s="60"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="68"/>
+      <c r="F87" s="34" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="77.25" thickBot="1">
-      <c r="A88" s="37" t="s">
+      <c r="A88" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B88" s="38" t="s">
+      <c r="B88" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="C88" s="39" t="s">
+      <c r="C88" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="D88" s="54" t="s">
+      <c r="D88" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="E88" s="43" t="s">
+      <c r="E88" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="F88" s="43">
+      <c r="F88" s="34">
         <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="102.75" thickBot="1">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="B89" s="38" t="s">
+      <c r="B89" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C89" s="39" t="s">
+      <c r="C89" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="D89" s="54" t="s">
+      <c r="D89" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="E89" s="43" t="s">
+      <c r="E89" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="F89" s="43" t="s">
+      <c r="F89" s="34" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="102.75" thickBot="1">
-      <c r="A90" s="37" t="s">
+      <c r="A90" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="B90" s="38" t="s">
+      <c r="B90" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="C90" s="39" t="s">
+      <c r="C90" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="D90" s="54" t="s">
+      <c r="D90" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="E90" s="43" t="s">
+      <c r="E90" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="F90" s="43" t="s">
+      <c r="F90" s="34" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="102.75" thickBot="1">
-      <c r="A91" s="37" t="s">
+      <c r="A91" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="B91" s="38" t="s">
+      <c r="B91" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="C91" s="39" t="s">
+      <c r="C91" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="D91" s="54" t="s">
+      <c r="D91" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="E91" s="43" t="s">
+      <c r="E91" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="F91" s="43" t="s">
+      <c r="F91" s="34" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="75.75" customHeight="1">
-      <c r="A92" s="71" t="s">
+      <c r="A92" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="B92" s="73" t="s">
+      <c r="B92" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="C92" s="75" t="s">
+      <c r="C92" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="D92" s="81" t="s">
+      <c r="D92" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="E92" s="84" t="s">
+      <c r="E92" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="F92" s="55" t="s">
+      <c r="F92" s="46" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A93" s="72"/>
-      <c r="B93" s="74"/>
-      <c r="C93" s="76"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="86"/>
-      <c r="F93" s="45" t="s">
+      <c r="A93" s="60"/>
+      <c r="B93" s="62"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="68"/>
+      <c r="F93" s="36" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="75.75" customHeight="1">
-      <c r="A94" s="71" t="s">
+      <c r="A94" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="B94" s="73" t="s">
+      <c r="B94" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="C94" s="75" t="s">
+      <c r="C94" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="D94" s="81" t="s">
+      <c r="D94" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="E94" s="84" t="s">
+      <c r="E94" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="F94" s="55" t="s">
+      <c r="F94" s="46" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A95" s="72"/>
-      <c r="B95" s="74"/>
-      <c r="C95" s="76"/>
-      <c r="D95" s="83"/>
-      <c r="E95" s="86"/>
-      <c r="F95" s="45" t="s">
+      <c r="A95" s="60"/>
+      <c r="B95" s="62"/>
+      <c r="C95" s="64"/>
+      <c r="D95" s="66"/>
+      <c r="E95" s="68"/>
+      <c r="F95" s="36" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75">
-      <c r="A96" s="32"/>
+      <c r="A96" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="E83:E87"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="E79:E82"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A38:C39"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="D39:F39"/>
@@ -3495,7 +3810,44 @@
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="E79:E82"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="E83:E87"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3555,19 +3907,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="31.5">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="91" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -3582,16 +3934,16 @@
       <c r="I2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="91" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="25"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="10" t="s">
         <v>23</v>
       </c>
@@ -3604,7 +3956,7 @@
       <c r="I3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="25"/>
+      <c r="J3" s="92"/>
     </row>
     <row r="4" spans="1:10" ht="32.25" thickBot="1">
       <c r="A4" s="13">
@@ -3649,10 +4001,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3694,271 +4046,758 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="88" t="s">
+      <c r="I2" s="48" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
       <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
       <c r="I3" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90" t="s">
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="92"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="50"/>
     </row>
     <row r="5" spans="1:9" ht="94.5">
-      <c r="A5" s="94">
+      <c r="A5" s="52">
         <v>1</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94" t="s">
-        <v>212</v>
-      </c>
-      <c r="F5" s="94" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="G5" s="94" t="s">
+      <c r="G5" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="95"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
     </row>
     <row r="6" spans="1:9" ht="47.25">
-      <c r="A6" s="94">
+      <c r="A6" s="52">
         <v>2</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" s="94" t="s">
+      <c r="D6" s="52"/>
+      <c r="E6" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="G6" s="94" t="s">
+      <c r="G6" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
     </row>
     <row r="7" spans="1:9" ht="78.75">
-      <c r="A7" s="94">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94" t="s">
-        <v>212</v>
-      </c>
-      <c r="F7" s="94" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="G7" s="94" t="s">
+      <c r="G7" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="1:9" ht="31.5">
-      <c r="A8" s="94">
+      <c r="A8" s="52">
         <v>4</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94" t="s">
-        <v>212</v>
-      </c>
-      <c r="F8" s="94" t="s">
+      <c r="D8" s="52"/>
+      <c r="E8" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="G8" s="94" t="s">
+      <c r="G8" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
     </row>
     <row r="9" spans="1:9" ht="236.25">
-      <c r="A9" s="94">
+      <c r="A9" s="52">
         <v>5</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94" t="s">
+      <c r="B9" s="52"/>
+      <c r="C9" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94" t="s">
-        <v>212</v>
-      </c>
-      <c r="F9" s="94" t="s">
+      <c r="D9" s="52"/>
+      <c r="E9" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
     </row>
     <row r="10" spans="1:9" ht="78.75">
-      <c r="A10" s="94">
+      <c r="A10" s="52">
         <v>6</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" s="94" t="s">
+      <c r="D10" s="52"/>
+      <c r="E10" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="G10" s="94" t="s">
+      <c r="G10" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
     </row>
     <row r="11" spans="1:9" ht="78.75">
-      <c r="A11" s="94">
+      <c r="A11" s="52">
         <v>7</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94" t="s">
-        <v>212</v>
-      </c>
-      <c r="F11" s="94" t="s">
+      <c r="D11" s="52"/>
+      <c r="E11" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="G11" s="94" t="s">
+      <c r="G11" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" spans="1:9" ht="110.25">
-      <c r="A12" s="94">
+      <c r="A12" s="52">
         <v>8</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94" t="s">
-        <v>212</v>
-      </c>
-      <c r="F12" s="94" t="s">
+      <c r="D12" s="52"/>
+      <c r="E12" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="G12" s="94" t="s">
+      <c r="G12" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
     </row>
     <row r="13" spans="1:9" ht="110.25">
-      <c r="A13" s="94">
+      <c r="A13" s="52">
         <v>9</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94" t="s">
+      <c r="B13" s="52"/>
+      <c r="C13" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94" t="s">
-        <v>212</v>
-      </c>
-      <c r="F13" s="94" t="s">
+      <c r="D13" s="52"/>
+      <c r="E13" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="G13" s="94" t="s">
+      <c r="G13" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" s="94"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="16"/>
-    </row>
-    <row r="17" spans="1:1" ht="15.75">
-      <c r="A17" s="16"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+    </row>
+    <row r="14" spans="1:9" ht="47.25">
+      <c r="A14" s="52">
+        <v>10</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>389</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="94.5">
+      <c r="A15" s="52">
+        <v>11</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52" t="s">
+        <v>382</v>
+      </c>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="78.75">
+      <c r="A16" s="52">
+        <v>12</v>
+      </c>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52" t="s">
+        <v>386</v>
+      </c>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>388</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+    </row>
+    <row r="17" spans="1:9" ht="283.5">
+      <c r="A17" s="52">
+        <v>13</v>
+      </c>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52" t="s">
+        <v>387</v>
+      </c>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+    </row>
+    <row r="18" spans="1:9" ht="63">
+      <c r="A18" s="52">
+        <v>14</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52" t="s">
+        <v>380</v>
+      </c>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+    </row>
+    <row r="19" spans="1:9" ht="47.25">
+      <c r="A19" s="52">
+        <v>15</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>394</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="1:9" ht="63">
+      <c r="A20" s="52">
+        <v>16</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52" t="s">
+        <v>398</v>
+      </c>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>399</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="1:9" ht="78.75">
+      <c r="A21" s="52">
+        <v>17</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>403</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="1:9" ht="173.25">
+      <c r="A22" s="52">
+        <v>18</v>
+      </c>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52" t="s">
+        <v>405</v>
+      </c>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>406</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="1:9" ht="31.5">
+      <c r="A23" s="52">
+        <v>19</v>
+      </c>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52" t="s">
+        <v>408</v>
+      </c>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="1:9" ht="31.5">
+      <c r="A24" s="52">
+        <v>20</v>
+      </c>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52" t="s">
+        <v>411</v>
+      </c>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+    </row>
+    <row r="25" spans="1:9" ht="31.5">
+      <c r="A25" s="52">
+        <v>21</v>
+      </c>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52" t="s">
+        <v>418</v>
+      </c>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>419</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+    </row>
+    <row r="26" spans="1:9" ht="173.25">
+      <c r="A26" s="52">
+        <v>22</v>
+      </c>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52" t="s">
+        <v>423</v>
+      </c>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>424</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="1:9" ht="94.5">
+      <c r="A27" s="52">
+        <v>23</v>
+      </c>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52" t="s">
+        <v>428</v>
+      </c>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>433</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="1:9" ht="78.75">
+      <c r="A28" s="52">
+        <v>24</v>
+      </c>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>431</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+    </row>
+    <row r="29" spans="1:9" ht="126">
+      <c r="A29" s="52">
+        <v>25</v>
+      </c>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52" t="s">
+        <v>441</v>
+      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F29" s="52" t="s">
+        <v>434</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+    </row>
+    <row r="30" spans="1:9" ht="141.75">
+      <c r="A30" s="52">
+        <v>26</v>
+      </c>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" s="52" t="s">
+        <v>435</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+    </row>
+    <row r="31" spans="1:9" ht="110.25">
+      <c r="A31" s="52">
+        <v>27</v>
+      </c>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52" t="s">
+        <v>443</v>
+      </c>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="52" t="s">
+        <v>436</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+    </row>
+    <row r="32" spans="1:9" ht="141.75">
+      <c r="A32" s="52">
+        <v>28</v>
+      </c>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52" t="s">
+        <v>444</v>
+      </c>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+    </row>
+    <row r="33" spans="1:9" ht="63">
+      <c r="A33" s="52">
+        <v>29</v>
+      </c>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52" t="s">
+        <v>445</v>
+      </c>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+    </row>
+    <row r="34" spans="1:9" ht="110.25">
+      <c r="A34" s="52">
+        <v>30</v>
+      </c>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52" t="s">
+        <v>443</v>
+      </c>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F34" s="52" t="s">
+        <v>439</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+    </row>
+    <row r="35" spans="1:9" ht="141.75">
+      <c r="A35" s="52">
+        <v>31</v>
+      </c>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52" t="s">
+        <v>446</v>
+      </c>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" s="52" t="s">
+        <v>440</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+    </row>
+    <row r="36" spans="1:9" ht="63">
+      <c r="A36" s="52">
+        <v>32</v>
+      </c>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52" t="s">
+        <v>448</v>
+      </c>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F36" s="52" t="s">
+        <v>449</v>
+      </c>
+      <c r="G36" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75">
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75">
+      <c r="A39" s="16"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75">
+      <c r="A40" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3976,10 +4815,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3995,76 +4834,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="97" t="s">
         <v>33</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="97" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
       <c r="I2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="29"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="98"/>
     </row>
     <row r="3" spans="1:12" ht="31.5">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="91" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="91" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -4079,22 +4918,22 @@
       <c r="J3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="91" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
       <c r="D4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="9" t="s">
         <v>23</v>
       </c>
@@ -4107,11 +4946,11 @@
       <c r="J4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="25"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="92"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="55" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="21"/>
@@ -4159,7 +4998,7 @@
       <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="55" t="s">
         <v>209</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -4213,7 +5052,7 @@
       <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="97"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -4270,16 +5109,10 @@
       </c>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="1:12" ht="30">
-      <c r="A14" s="97" t="s">
-        <v>248</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>250</v>
-      </c>
+    <row r="14" spans="1:12">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -4287,20 +5120,18 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="21" t="s">
-        <v>259</v>
-      </c>
+      <c r="K14" s="21"/>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>249</v>
+    <row r="15" spans="1:12" ht="30">
+      <c r="A15" s="57" t="s">
+        <v>362</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>361</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -4310,15 +5141,21 @@
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21" t="s">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="L15" s="21"/>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+    <row r="16" spans="1:12" ht="30">
+      <c r="A16" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="D16" s="58"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -4329,396 +5166,314 @@
       <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="98" t="s">
-        <v>361</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="A17" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="K17" s="21" t="s">
+        <v>377</v>
+      </c>
       <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="A18" s="57" t="s">
+        <v>375</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
+      <c r="K18" s="21" t="s">
+        <v>377</v>
+      </c>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="1:12" ht="30">
-      <c r="A19" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="96">
-        <v>0.02</v>
-      </c>
+    <row r="19" spans="1:12">
+      <c r="A19" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21" t="s">
-        <v>253</v>
+        <v>377</v>
       </c>
       <c r="L19" s="21"/>
     </row>
     <row r="20" spans="1:12" ht="30">
-      <c r="A20" s="97" t="s">
-        <v>257</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="96">
-        <v>0.15</v>
-      </c>
+      <c r="A20" s="57" t="s">
+        <v>376</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21" t="s">
-        <v>253</v>
+        <v>407</v>
       </c>
       <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21" t="s">
-        <v>263</v>
-      </c>
+      <c r="A21" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
-      <c r="K21" s="21" t="s">
-        <v>253</v>
-      </c>
+      <c r="K21" s="21"/>
       <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21" t="s">
-        <v>263</v>
-      </c>
+      <c r="A22" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
-      <c r="K22" s="21" t="s">
-        <v>253</v>
-      </c>
+      <c r="K22" s="21"/>
       <c r="L22" s="21"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="97" t="s">
-        <v>251</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21" t="s">
-        <v>264</v>
-      </c>
+      <c r="A23" s="58" t="s">
+        <v>369</v>
+      </c>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
-      <c r="K23" s="21" t="s">
-        <v>253</v>
-      </c>
+      <c r="K23" s="21"/>
       <c r="L23" s="21"/>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+    <row r="24" spans="1:12" ht="30">
+      <c r="A24" s="58" t="s">
+        <v>370</v>
+      </c>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="D24" s="58"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
-      <c r="K24" s="21" t="s">
-        <v>253</v>
-      </c>
+      <c r="K24" s="21"/>
       <c r="L24" s="21"/>
     </row>
-    <row r="25" spans="1:12" ht="30">
-      <c r="A25" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21" t="s">
-        <v>265</v>
-      </c>
+    <row r="25" spans="1:12">
+      <c r="A25" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
-      <c r="K25" s="21" t="s">
-        <v>253</v>
-      </c>
+      <c r="K25" s="21"/>
       <c r="L25" s="21"/>
     </row>
-    <row r="26" spans="1:12" ht="30">
-      <c r="A26" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21" t="s">
-        <v>268</v>
-      </c>
+    <row r="26" spans="1:12">
+      <c r="A26" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
-      <c r="K26" s="21" t="s">
-        <v>253</v>
-      </c>
+      <c r="K26" s="21"/>
       <c r="L26" s="21"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21" t="s">
-        <v>271</v>
-      </c>
+      <c r="A27" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
-      <c r="K27" s="21" t="s">
-        <v>253</v>
-      </c>
+      <c r="K27" s="21"/>
       <c r="L27" s="21"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21" t="s">
-        <v>272</v>
-      </c>
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
-      <c r="K28" s="21" t="s">
-        <v>253</v>
-      </c>
+      <c r="K28" s="21"/>
       <c r="L28" s="21"/>
     </row>
     <row r="29" spans="1:12" ht="30">
-      <c r="A29" s="97" t="s">
-        <v>275</v>
+      <c r="A29" s="55" t="s">
+        <v>248</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="D29" s="21"/>
-      <c r="E29" s="21" t="s">
-        <v>277</v>
-      </c>
+      <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L29" s="21"/>
     </row>
-    <row r="30" spans="1:12" ht="30">
+    <row r="30" spans="1:12">
       <c r="A30" s="21" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="D30" s="21"/>
-      <c r="E30" s="21" t="s">
-        <v>280</v>
-      </c>
+      <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L30" s="21"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>283</v>
-      </c>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="21"/>
-      <c r="E31" s="21" t="s">
-        <v>271</v>
-      </c>
+      <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="21" t="s">
-        <v>253</v>
-      </c>
+      <c r="K31" s="21"/>
       <c r="L31" s="21"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="97" t="s">
-        <v>282</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>284</v>
-      </c>
+      <c r="A32" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="21"/>
-      <c r="E32" s="21" t="s">
-        <v>272</v>
-      </c>
+      <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
-      <c r="K32" s="21" t="s">
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="L32" s="21"/>
-    </row>
-    <row r="33" spans="1:12" ht="30">
-      <c r="A33" s="21" t="s">
-        <v>287</v>
-      </c>
       <c r="B33" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>286</v>
-      </c>
+      <c r="C33" s="21"/>
       <c r="D33" s="21"/>
-      <c r="E33" s="21" t="s">
-        <v>285</v>
-      </c>
+      <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21" t="s">
-        <v>253</v>
+        <v>426</v>
       </c>
       <c r="L33" s="21"/>
     </row>
     <row r="34" spans="1:12" ht="30">
       <c r="A34" s="21" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="D34" s="21"/>
-      <c r="E34" s="21" t="s">
-        <v>290</v>
+      <c r="E34" s="54">
+        <v>0.02</v>
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
@@ -4726,23 +5481,23 @@
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21" t="s">
-        <v>253</v>
+        <v>427</v>
       </c>
       <c r="L34" s="21"/>
     </row>
     <row r="35" spans="1:12" ht="30">
-      <c r="A35" s="97" t="s">
-        <v>291</v>
+      <c r="A35" s="55" t="s">
+        <v>256</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="D35" s="21"/>
-      <c r="E35" s="21" t="s">
-        <v>271</v>
+      <c r="E35" s="54">
+        <v>0.15</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -4750,23 +5505,21 @@
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21" t="s">
-        <v>253</v>
+        <v>427</v>
       </c>
       <c r="L35" s="21"/>
     </row>
-    <row r="36" spans="1:12" ht="30">
-      <c r="A36" s="21" t="s">
-        <v>292</v>
-      </c>
+    <row r="36" spans="1:12">
+      <c r="A36" s="21"/>
       <c r="B36" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
@@ -4774,23 +5527,21 @@
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21" t="s">
-        <v>253</v>
+        <v>429</v>
       </c>
       <c r="L36" s="21"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="21" t="s">
-        <v>296</v>
-      </c>
+      <c r="A37" s="21"/>
       <c r="B37" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C37" s="21" t="s">
-        <v>297</v>
+      <c r="C37" s="101" t="s">
+        <v>261</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="21" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
@@ -4798,23 +5549,21 @@
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L37" s="21"/>
     </row>
-    <row r="38" spans="1:12" ht="30">
-      <c r="A38" s="97" t="s">
-        <v>299</v>
-      </c>
+    <row r="38" spans="1:12">
+      <c r="A38" s="55"/>
       <c r="B38" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>300</v>
+      <c r="C38" s="101" t="s">
+        <v>251</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="21" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
@@ -4822,45 +5571,37 @@
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
       <c r="K38" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L38" s="21"/>
     </row>
-    <row r="39" spans="1:12" ht="30">
-      <c r="A39" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>303</v>
-      </c>
+    <row r="39" spans="1:12">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="21"/>
-      <c r="E39" s="21" t="s">
-        <v>304</v>
-      </c>
+      <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
-      <c r="K39" s="21" t="s">
-        <v>253</v>
-      </c>
+      <c r="K39" s="21"/>
       <c r="L39" s="21"/>
     </row>
-    <row r="40" spans="1:12" ht="45">
-      <c r="A40" s="21"/>
+    <row r="40" spans="1:12" ht="30">
+      <c r="A40" s="21" t="s">
+        <v>265</v>
+      </c>
       <c r="B40" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="21" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
@@ -4868,23 +5609,23 @@
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
       <c r="K40" s="21" t="s">
-        <v>253</v>
+        <v>395</v>
       </c>
       <c r="L40" s="21"/>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="97" t="s">
-        <v>306</v>
+    <row r="41" spans="1:12" ht="30">
+      <c r="A41" s="55" t="s">
+        <v>266</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="21" t="s">
-        <v>124</v>
+        <v>267</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
@@ -4892,23 +5633,23 @@
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
       <c r="K41" s="21" t="s">
-        <v>253</v>
+        <v>395</v>
       </c>
       <c r="L41" s="21"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" ht="30">
       <c r="A42" s="21" t="s">
-        <v>308</v>
+        <v>396</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="21" t="s">
-        <v>125</v>
+        <v>270</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
@@ -4916,21 +5657,23 @@
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
       <c r="K42" s="21" t="s">
-        <v>253</v>
+        <v>395</v>
       </c>
       <c r="L42" s="21"/>
     </row>
     <row r="43" spans="1:12" ht="30">
-      <c r="A43" s="21"/>
+      <c r="A43" s="21" t="s">
+        <v>397</v>
+      </c>
       <c r="B43" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -4938,23 +5681,23 @@
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
       <c r="K43" s="21" t="s">
-        <v>253</v>
+        <v>395</v>
       </c>
       <c r="L43" s="21"/>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="97" t="s">
-        <v>312</v>
+    <row r="44" spans="1:12" ht="30">
+      <c r="A44" s="55" t="s">
+        <v>274</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
@@ -4962,21 +5705,23 @@
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21" t="s">
-        <v>253</v>
+        <v>400</v>
       </c>
       <c r="L44" s="21"/>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="21"/>
+    <row r="45" spans="1:12" ht="30">
+      <c r="A45" s="21" t="s">
+        <v>401</v>
+      </c>
       <c r="B45" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
@@ -4984,21 +5729,23 @@
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21" t="s">
-        <v>253</v>
+        <v>400</v>
       </c>
       <c r="L45" s="21"/>
     </row>
-    <row r="46" spans="1:12" ht="45">
-      <c r="A46" s="21"/>
+    <row r="46" spans="1:12" ht="30">
+      <c r="A46" s="21" t="s">
+        <v>279</v>
+      </c>
       <c r="B46" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="21" t="s">
-        <v>125</v>
+        <v>270</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
@@ -5006,21 +5753,23 @@
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21" t="s">
-        <v>253</v>
+        <v>400</v>
       </c>
       <c r="L46" s="21"/>
     </row>
     <row r="47" spans="1:12" ht="30">
-      <c r="A47" s="97"/>
+      <c r="A47" s="55" t="s">
+        <v>280</v>
+      </c>
       <c r="B47" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="D47" s="21"/>
       <c r="E47" s="21" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
@@ -5028,21 +5777,23 @@
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21" t="s">
-        <v>253</v>
+        <v>400</v>
       </c>
       <c r="L47" s="21"/>
     </row>
     <row r="48" spans="1:12" ht="30">
-      <c r="A48" s="21"/>
+      <c r="A48" s="21" t="s">
+        <v>285</v>
+      </c>
       <c r="B48" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="21" t="s">
-        <v>124</v>
+        <v>283</v>
       </c>
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
@@ -5050,21 +5801,23 @@
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
       <c r="K48" s="21" t="s">
-        <v>253</v>
+        <v>404</v>
       </c>
       <c r="L48" s="21"/>
     </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="21"/>
+    <row r="49" spans="1:12" ht="30">
+      <c r="A49" s="21" t="s">
+        <v>286</v>
+      </c>
       <c r="B49" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="D49" s="21"/>
       <c r="E49" s="21" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
@@ -5072,443 +5825,417 @@
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
       <c r="K49" s="21" t="s">
-        <v>253</v>
+        <v>404</v>
       </c>
       <c r="L49" s="21"/>
     </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="98" t="s">
-        <v>360</v>
-      </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
+    <row r="50" spans="1:12" ht="30">
+      <c r="A50" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>291</v>
+      </c>
       <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
+      <c r="E50" s="21" t="s">
+        <v>270</v>
+      </c>
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
+      <c r="K50" s="21" t="s">
+        <v>404</v>
+      </c>
       <c r="L50" s="21"/>
     </row>
     <row r="51" spans="1:12" ht="30">
       <c r="A51" s="21" t="s">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="B51" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
+      <c r="E51" s="21" t="s">
+        <v>293</v>
+      </c>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
-      <c r="I51" s="21" t="s">
-        <v>67</v>
-      </c>
+      <c r="I51" s="21"/>
       <c r="J51" s="21"/>
       <c r="K51" s="21" t="s">
-        <v>253</v>
+        <v>404</v>
       </c>
       <c r="L51" s="21"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" ht="30">
       <c r="A52" s="21" t="s">
-        <v>69</v>
+        <v>294</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
+      <c r="E52" s="21" t="s">
+        <v>296</v>
+      </c>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
-      <c r="I52" s="21" t="s">
-        <v>70</v>
-      </c>
+      <c r="I52" s="21"/>
       <c r="J52" s="21"/>
       <c r="K52" s="21" t="s">
-        <v>253</v>
+        <v>410</v>
       </c>
       <c r="L52" s="21"/>
     </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="21" t="s">
-        <v>73</v>
+    <row r="53" spans="1:12" ht="30">
+      <c r="A53" s="55" t="s">
+        <v>297</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
+      <c r="E53" s="21" t="s">
+        <v>299</v>
+      </c>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
-      <c r="I53" s="21" t="s">
-        <v>71</v>
-      </c>
+      <c r="I53" s="21"/>
       <c r="J53" s="21"/>
       <c r="K53" s="21" t="s">
-        <v>253</v>
+        <v>413</v>
       </c>
       <c r="L53" s="21"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" ht="30">
       <c r="A54" s="21" t="s">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
+      <c r="E54" s="21" t="s">
+        <v>302</v>
+      </c>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
-      <c r="I54" s="21" t="s">
-        <v>70</v>
-      </c>
+      <c r="I54" s="21"/>
       <c r="J54" s="21"/>
       <c r="K54" s="21" t="s">
-        <v>253</v>
+        <v>451</v>
       </c>
       <c r="L54" s="21"/>
     </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="21" t="s">
-        <v>79</v>
-      </c>
+    <row r="55" spans="1:12" ht="45">
+      <c r="A55" s="21"/>
       <c r="B55" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
+      <c r="E55" s="21" t="s">
+        <v>288</v>
+      </c>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
-      <c r="I55" s="21" t="s">
-        <v>80</v>
-      </c>
+      <c r="I55" s="21"/>
       <c r="J55" s="21"/>
       <c r="K55" s="21" t="s">
-        <v>253</v>
+        <v>392</v>
       </c>
       <c r="L55" s="21"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="21" t="s">
-        <v>83</v>
+        <v>304</v>
       </c>
       <c r="B56" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
+      <c r="E56" s="21" t="s">
+        <v>124</v>
+      </c>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
-      <c r="I56" s="21" t="s">
-        <v>84</v>
-      </c>
+      <c r="I56" s="21"/>
       <c r="J56" s="21"/>
       <c r="K56" s="21" t="s">
-        <v>253</v>
+        <v>385</v>
       </c>
       <c r="L56" s="21"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" ht="105">
       <c r="A57" s="21" t="s">
-        <v>87</v>
+        <v>306</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
+      <c r="E57" s="21" t="s">
+        <v>125</v>
+      </c>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
-      <c r="I57" s="21" t="s">
-        <v>71</v>
-      </c>
+      <c r="I57" s="21"/>
       <c r="J57" s="21"/>
       <c r="K57" s="21" t="s">
-        <v>253</v>
+        <v>447</v>
       </c>
       <c r="L57" s="21"/>
     </row>
     <row r="58" spans="1:12" ht="30">
-      <c r="A58" s="21" t="s">
-        <v>89</v>
-      </c>
+      <c r="A58" s="21"/>
       <c r="B58" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
+      <c r="E58" s="21" t="s">
+        <v>309</v>
+      </c>
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
-      <c r="I58" s="21" t="s">
-        <v>90</v>
-      </c>
+      <c r="I58" s="21"/>
       <c r="J58" s="21"/>
       <c r="K58" s="21" t="s">
-        <v>253</v>
+        <v>432</v>
       </c>
       <c r="L58" s="21"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="21" t="s">
-        <v>97</v>
+      <c r="A59" s="55" t="s">
+        <v>310</v>
       </c>
       <c r="B59" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C59" s="21" t="s">
-        <v>329</v>
+      <c r="C59" s="101" t="s">
+        <v>311</v>
       </c>
       <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
+      <c r="E59" s="21" t="s">
+        <v>312</v>
+      </c>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
-      <c r="I59" s="21" t="s">
-        <v>94</v>
-      </c>
+      <c r="I59" s="21"/>
       <c r="J59" s="21"/>
       <c r="K59" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L59" s="21"/>
     </row>
-    <row r="60" spans="1:12" ht="30">
-      <c r="A60" s="21" t="s">
-        <v>99</v>
-      </c>
+    <row r="60" spans="1:12">
+      <c r="A60" s="21"/>
       <c r="B60" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C60" s="21" t="s">
-        <v>330</v>
+      <c r="C60" s="101" t="s">
+        <v>313</v>
       </c>
       <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
+      <c r="E60" s="21" t="s">
+        <v>299</v>
+      </c>
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
-      <c r="I60" s="21" t="s">
-        <v>100</v>
-      </c>
+      <c r="I60" s="21"/>
       <c r="J60" s="21"/>
       <c r="K60" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L60" s="21"/>
     </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="21" t="s">
-        <v>103</v>
-      </c>
+    <row r="61" spans="1:12" ht="45">
+      <c r="A61" s="21"/>
       <c r="B61" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C61" s="21" t="s">
-        <v>333</v>
+      <c r="C61" s="101" t="s">
+        <v>314</v>
       </c>
       <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
+      <c r="E61" s="21" t="s">
+        <v>125</v>
+      </c>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
-      <c r="I61" s="21" t="s">
-        <v>95</v>
-      </c>
+      <c r="I61" s="21"/>
       <c r="J61" s="21"/>
       <c r="K61" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L61" s="21"/>
     </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="21" t="s">
-        <v>107</v>
-      </c>
+    <row r="62" spans="1:12" ht="30">
+      <c r="A62" s="55"/>
       <c r="B62" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
+      <c r="E62" s="21" t="s">
+        <v>312</v>
+      </c>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
-      <c r="I62" s="21" t="s">
-        <v>95</v>
-      </c>
+      <c r="I62" s="21"/>
       <c r="J62" s="21"/>
       <c r="K62" s="21" t="s">
-        <v>253</v>
+        <v>425</v>
       </c>
       <c r="L62" s="21"/>
     </row>
     <row r="63" spans="1:12" ht="30">
-      <c r="A63" s="21" t="s">
-        <v>109</v>
-      </c>
+      <c r="A63" s="21"/>
       <c r="B63" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C63" s="21" t="s">
-        <v>335</v>
+      <c r="C63" s="101" t="s">
+        <v>316</v>
       </c>
       <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
+      <c r="E63" s="21" t="s">
+        <v>124</v>
+      </c>
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
-      <c r="I63" s="21" t="s">
-        <v>95</v>
-      </c>
+      <c r="I63" s="21"/>
       <c r="J63" s="21"/>
       <c r="K63" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L63" s="21"/>
     </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="21" t="s">
-        <v>111</v>
-      </c>
+    <row r="64" spans="1:12" ht="60">
+      <c r="A64" s="21"/>
       <c r="B64" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C64" s="21" t="s">
-        <v>332</v>
+      <c r="C64" s="102" t="s">
+        <v>317</v>
       </c>
       <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
+      <c r="E64" s="21" t="s">
+        <v>318</v>
+      </c>
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
-      <c r="I64" s="21" t="s">
-        <v>331</v>
-      </c>
+      <c r="I64" s="21"/>
       <c r="J64" s="21"/>
       <c r="K64" s="21" t="s">
-        <v>253</v>
+        <v>450</v>
       </c>
       <c r="L64" s="21"/>
     </row>
-    <row r="65" spans="1:12" ht="30">
-      <c r="A65" s="21" t="s">
-        <v>114</v>
+    <row r="65" spans="1:12">
+      <c r="A65" s="57" t="s">
+        <v>420</v>
       </c>
       <c r="B65" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>336</v>
+        <v>421</v>
       </c>
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
-      <c r="I65" s="21" t="s">
-        <v>115</v>
-      </c>
+      <c r="I65" s="21"/>
       <c r="J65" s="21"/>
       <c r="K65" s="21" t="s">
-        <v>253</v>
+        <v>422</v>
       </c>
       <c r="L65" s="21"/>
     </row>
-    <row r="66" spans="1:12" ht="30">
-      <c r="A66" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>337</v>
-      </c>
+    <row r="66" spans="1:12">
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="21"/>
       <c r="E66" s="21"/>
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
-      <c r="I66" s="21" t="s">
-        <v>119</v>
-      </c>
+      <c r="I66" s="21"/>
       <c r="J66" s="21"/>
-      <c r="K66" s="21" t="s">
-        <v>253</v>
-      </c>
+      <c r="K66" s="21"/>
       <c r="L66" s="21"/>
     </row>
-    <row r="67" spans="1:12" ht="30">
-      <c r="A67" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>338</v>
-      </c>
+    <row r="67" spans="1:12">
+      <c r="A67" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
       <c r="D67" s="21"/>
       <c r="E67" s="21"/>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
-      <c r="I67" s="21" t="s">
-        <v>124</v>
-      </c>
+      <c r="I67" s="21"/>
       <c r="J67" s="21"/>
-      <c r="K67" s="21" t="s">
-        <v>253</v>
-      </c>
+      <c r="K67" s="21"/>
       <c r="L67" s="21"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" ht="30">
       <c r="A68" s="21" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="B68" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="D68" s="21"/>
       <c r="E68" s="21"/>
@@ -5516,23 +6243,23 @@
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
       <c r="I68" s="21" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="J68" s="21"/>
       <c r="K68" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L68" s="21"/>
     </row>
-    <row r="69" spans="1:12" ht="30">
+    <row r="69" spans="1:12">
       <c r="A69" s="21" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="D69" s="21"/>
       <c r="E69" s="21"/>
@@ -5540,23 +6267,23 @@
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
       <c r="I69" s="21" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="J69" s="21"/>
       <c r="K69" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L69" s="21"/>
     </row>
-    <row r="70" spans="1:12" ht="30">
+    <row r="70" spans="1:12">
       <c r="A70" s="21" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="B70" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>134</v>
+        <v>320</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="21"/>
@@ -5564,23 +6291,23 @@
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
       <c r="I70" s="21" t="s">
-        <v>341</v>
+        <v>71</v>
       </c>
       <c r="J70" s="21"/>
       <c r="K70" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L70" s="21"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="21" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="B71" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="D71" s="21"/>
       <c r="E71" s="21"/>
@@ -5588,23 +6315,23 @@
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
       <c r="I71" s="21" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="J71" s="21"/>
       <c r="K71" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L71" s="21"/>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="21" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="D72" s="21"/>
       <c r="E72" s="21"/>
@@ -5612,23 +6339,23 @@
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="21" t="s">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="J72" s="21"/>
       <c r="K72" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L72" s="21"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="21" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="B73" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="D73" s="21"/>
       <c r="E73" s="21"/>
@@ -5636,47 +6363,47 @@
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="21" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="J73" s="21"/>
       <c r="K73" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L73" s="21"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" ht="30">
       <c r="A74" s="21" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="B74" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="D74" s="21"/>
       <c r="E74" s="21"/>
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
-      <c r="I74" s="21">
-        <v>0</v>
+      <c r="I74" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="J74" s="21"/>
       <c r="K74" s="21" t="s">
-        <v>253</v>
+        <v>417</v>
       </c>
       <c r="L74" s="21"/>
     </row>
     <row r="75" spans="1:12" ht="30">
       <c r="A75" s="21" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="B75" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="D75" s="21"/>
       <c r="E75" s="21"/>
@@ -5684,23 +6411,23 @@
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
       <c r="I75" s="21" t="s">
-        <v>343</v>
+        <v>90</v>
       </c>
       <c r="J75" s="21"/>
       <c r="K75" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L75" s="21"/>
     </row>
-    <row r="76" spans="1:12" ht="30">
+    <row r="76" spans="1:12">
       <c r="A76" s="21" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="B76" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="21"/>
@@ -5708,23 +6435,23 @@
       <c r="G76" s="21"/>
       <c r="H76" s="21"/>
       <c r="I76" s="21" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="J76" s="21"/>
       <c r="K76" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L76" s="21"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" ht="30">
       <c r="A77" s="21" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="B77" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="D77" s="21"/>
       <c r="E77" s="21"/>
@@ -5732,23 +6459,23 @@
       <c r="G77" s="21"/>
       <c r="H77" s="21"/>
       <c r="I77" s="21" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="J77" s="21"/>
       <c r="K77" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L77" s="21"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="21" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="B78" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="D78" s="21"/>
       <c r="E78" s="21"/>
@@ -5756,23 +6483,23 @@
       <c r="G78" s="21"/>
       <c r="H78" s="21"/>
       <c r="I78" s="21" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="J78" s="21"/>
       <c r="K78" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L78" s="21"/>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="21" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="B79" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="D79" s="21"/>
       <c r="E79" s="21"/>
@@ -5780,23 +6507,23 @@
       <c r="G79" s="21"/>
       <c r="H79" s="21"/>
       <c r="I79" s="21" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="J79" s="21"/>
       <c r="K79" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L79" s="21"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" ht="30">
       <c r="A80" s="21" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="B80" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="21"/>
@@ -5804,23 +6531,23 @@
       <c r="G80" s="21"/>
       <c r="H80" s="21"/>
       <c r="I80" s="21" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="J80" s="21"/>
       <c r="K80" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L80" s="21"/>
     </row>
-    <row r="81" spans="1:12" ht="30">
+    <row r="81" spans="1:12">
       <c r="A81" s="21" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="B81" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="D81" s="21"/>
       <c r="E81" s="21"/>
@@ -5828,23 +6555,23 @@
       <c r="G81" s="21"/>
       <c r="H81" s="21"/>
       <c r="I81" s="21" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="J81" s="21"/>
       <c r="K81" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L81" s="21"/>
     </row>
     <row r="82" spans="1:12" ht="30">
       <c r="A82" s="21" t="s">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="B82" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
@@ -5852,23 +6579,23 @@
       <c r="G82" s="21"/>
       <c r="H82" s="21"/>
       <c r="I82" s="21" t="s">
-        <v>345</v>
+        <v>115</v>
       </c>
       <c r="J82" s="21"/>
       <c r="K82" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L82" s="21"/>
     </row>
     <row r="83" spans="1:12" ht="30">
       <c r="A83" s="21" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="B83" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
@@ -5876,23 +6603,23 @@
       <c r="G83" s="21"/>
       <c r="H83" s="21"/>
       <c r="I83" s="21" t="s">
-        <v>345</v>
+        <v>119</v>
       </c>
       <c r="J83" s="21"/>
       <c r="K83" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L83" s="21"/>
     </row>
     <row r="84" spans="1:12" ht="30">
       <c r="A84" s="21" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="B84" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
@@ -5900,23 +6627,23 @@
       <c r="G84" s="21"/>
       <c r="H84" s="21"/>
       <c r="I84" s="21" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="J84" s="21"/>
       <c r="K84" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L84" s="21"/>
     </row>
-    <row r="85" spans="1:12" ht="30">
+    <row r="85" spans="1:12">
       <c r="A85" s="21" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="B85" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
@@ -5924,16 +6651,434 @@
       <c r="G85" s="21"/>
       <c r="H85" s="21"/>
       <c r="I85" s="21" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="J85" s="21"/>
       <c r="K85" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L85" s="21"/>
+    </row>
+    <row r="86" spans="1:12" ht="30">
+      <c r="A86" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="L86" s="21"/>
+    </row>
+    <row r="87" spans="1:12" ht="30">
+      <c r="A87" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="L87" s="21"/>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="L88" s="21"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="L89" s="21"/>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="L90" s="21"/>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21">
+        <v>0</v>
+      </c>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="L91" s="21"/>
+    </row>
+    <row r="92" spans="1:12" ht="30">
+      <c r="A92" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="L92" s="21"/>
+    </row>
+    <row r="93" spans="1:12" ht="30">
+      <c r="A93" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="L93" s="21"/>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="L94" s="21"/>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="L95" s="21"/>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="L96" s="21"/>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="J97" s="21"/>
+      <c r="K97" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="L97" s="21"/>
+    </row>
+    <row r="98" spans="1:12" ht="30">
+      <c r="A98" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="J98" s="21"/>
+      <c r="K98" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="L98" s="21"/>
+    </row>
+    <row r="99" spans="1:12" ht="30">
+      <c r="A99" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="J99" s="21"/>
+      <c r="K99" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="L99" s="21"/>
+    </row>
+    <row r="100" spans="1:12" ht="30">
+      <c r="A100" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="J100" s="21"/>
+      <c r="K100" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="L100" s="21"/>
+    </row>
+    <row r="101" spans="1:12" ht="30">
+      <c r="A101" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="L101" s="21"/>
+    </row>
+    <row r="102" spans="1:12" ht="30">
+      <c r="A102" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="L102" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="H1:H2"/>
@@ -5942,16 +7087,6 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5960,10 +7095,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6001,25 +7136,25 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="91" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="91" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="11" t="s">
@@ -6027,122 +7162,166 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
       <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
       <c r="H3" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
       <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" ht="63">
-      <c r="A5" s="93">
+      <c r="A5" s="51">
         <v>1</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="F5" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="157.5">
-      <c r="A6" s="93">
+      <c r="A6" s="51">
         <v>2</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93" t="s">
+      <c r="D6" s="51"/>
+      <c r="E6" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="F6" s="93" t="s">
+      <c r="F6" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="141.75">
-      <c r="A7" s="93">
+      <c r="A7" s="51">
         <v>3</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
     </row>
     <row r="8" spans="1:8" ht="63">
-      <c r="A8" s="93">
+      <c r="A8" s="51">
         <v>4</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93" t="s">
+      <c r="D8" s="51"/>
+      <c r="E8" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75">
-      <c r="A9" s="93"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+    </row>
+    <row r="9" spans="1:8" ht="63">
+      <c r="A9" s="51">
+        <v>5</v>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51" t="s">
+        <v>380</v>
+      </c>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51" t="s">
+        <v>381</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="1:8" ht="63">
+      <c r="A10" s="51">
+        <v>6</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51" t="s">
+        <v>390</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51" t="s">
+        <v>416</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="1:8" ht="141.75">
+      <c r="A11" s="51">
+        <v>7</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/System Analysis/WorkingRepository/Group1/StoreConfigurationData.xlsx
+++ b/System Analysis/WorkingRepository/Group1/StoreConfigurationData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="14115" windowHeight="6720" activeTab="3"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="__DdeLink__1724_1104613906" localSheetId="2">Requirements!$B$37</definedName>
-    <definedName name="_GoBack" localSheetId="0">Description!$D$90</definedName>
+    <definedName name="_GoBack" localSheetId="0">Description!$D$100</definedName>
     <definedName name="h.gjdgxs" localSheetId="0">Description!$A$16</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="455">
   <si>
     <t>Authors:</t>
   </si>
@@ -151,12 +151,6 @@
     <t>Kernel</t>
   </si>
   <si>
-    <t>Function description</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
     <t>Kernel (but other function)</t>
   </si>
   <si>
@@ -170,9 +164,6 @@
   </si>
   <si>
     <t>20/11/2013 - v3 - use the new template</t>
-  </si>
-  <si>
-    <t>Subset 26</t>
   </si>
   <si>
     <t>Input Documents</t>
@@ -665,46 +656,13 @@
     <t>StoreConfigurationData</t>
   </si>
   <si>
-    <t>Stores all configuration, fixed and national data on-board.</t>
-  </si>
-  <si>
     <t>TrainConfigurationData, OnBoardConfigurationData</t>
   </si>
   <si>
     <t>ConfigurationData</t>
   </si>
   <si>
-    <t>TrainConfigurationData</t>
-  </si>
-  <si>
-    <t>OnBoardConfigurationData</t>
-  </si>
-  <si>
-    <t>This function manages configuration data, which are fixed data such as train or on-board configuration data.</t>
-  </si>
-  <si>
     <t>Issues :</t>
-  </si>
-  <si>
-    <t>How should configuration data be stored on-board ? In what kind of data structure(s) ?</t>
-  </si>
-  <si>
-    <t>For example, should we consider MA Request Parameters and Position Report Parameters from packets 57 and 58 sent by the RBC as configuration data ?</t>
-  </si>
-  <si>
-    <t>From which equipment(s) configuration data are they loaded ?</t>
-  </si>
-  <si>
-    <t>There is no specific requirement for this function, we will use the list of configuration data and parameters described in Alstom API proposal, and try to link them to subset-26 document. For now, the list of configuration data and parameters collected so far are stored in file StoreConfigurationData.txt.</t>
-  </si>
-  <si>
-    <t>FixedValues</t>
-  </si>
-  <si>
-    <t>NationalValues</t>
-  </si>
-  <si>
-    <t>DefaultsValues</t>
   </si>
   <si>
     <t>Subset26</t>
@@ -805,9 +763,6 @@
     <t>T_traction_cut_off</t>
   </si>
   <si>
-    <t>TractionModel</t>
-  </si>
-  <si>
     <t>Time delay from the traction cut-off command by the on-board to the moment the acceleration due to traction is guaranteed to be zero.</t>
   </si>
   <si>
@@ -835,9 +790,6 @@
     <t>A3.1</t>
   </si>
   <si>
-    <t>RotatingMassModel</t>
-  </si>
-  <si>
     <t>M_rotating_min</t>
   </si>
   <si>
@@ -1159,46 +1111,12 @@
     <t>3.13.2.2.1.1</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Brake build up time and speed dependent deceleration. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TrainData (cf. 3.13.2.2.1.3)</t>
-    </r>
-  </si>
-  <si>
-    <t>BrakingModels</t>
-  </si>
-  <si>
     <t>Speed Dependent Deceleration</t>
   </si>
   <si>
     <t>The deceleration due to braking shall be given as a step function of the speed.</t>
   </si>
   <si>
-    <t>A_brake_emergency(i)</t>
-  </si>
-  <si>
-    <t>A_brake_service(i)</t>
-  </si>
-  <si>
-    <t>A_brake_normal_service(i)</t>
-  </si>
-  <si>
-    <t>A_SB01</t>
-  </si>
-  <si>
-    <t>A_SB12</t>
-  </si>
-  <si>
     <t>Brake Build Up Time Model</t>
   </si>
   <si>
@@ -1212,15 +1130,6 @@
   </si>
   <si>
     <t>Special Brakes</t>
-  </si>
-  <si>
-    <t>T_brake_emergency</t>
-  </si>
-  <si>
-    <t>T_brake_service</t>
-  </si>
-  <si>
-    <t>3.13.2.2.6.2</t>
   </si>
   <si>
     <t>All train related inputs except the fixed values are acquired as Train Data (see 3.18.3.2 items b) c) and d)).</t>
@@ -1342,9 +1251,6 @@
     <t>3.13.9.3.3.4</t>
   </si>
   <si>
-    <t>3.13.2.2.6.2, 3.13.9.3.3.4</t>
-  </si>
-  <si>
     <t>T_warning is defined as a fixed value (refer to A3.1).</t>
   </si>
   <si>
@@ -1372,22 +1278,10 @@
     <t>Subset26 (3.13.2.2.10.1)</t>
   </si>
   <si>
-    <t>A3.1, 3.13.9.4.5</t>
-  </si>
-  <si>
     <t>T_preindication is defined as a fixed value (refer to A3.1).</t>
   </si>
   <si>
     <t>3.13.9.5.7</t>
-  </si>
-  <si>
-    <t>ReleaseSpeed</t>
-  </si>
-  <si>
-    <t>Release Speed given as fixed value from trackside.</t>
-  </si>
-  <si>
-    <t>3.13.9.4.5</t>
   </si>
   <si>
     <t>Following information shall remain stored on-board for a distance defined by a fixed value in rear of the min safe rear end position of the train:
@@ -1403,9 +1297,6 @@
     <t>A3.1, A3.6.2.1</t>
   </si>
   <si>
-    <t>3.13.2.2.10</t>
-  </si>
-  <si>
     <t>A3.1, 3.13.2.2.10.1</t>
   </si>
   <si>
@@ -1475,16 +1366,121 @@
     <t>3.5.7.2.1</t>
   </si>
   <si>
-    <t>A3.1, 3.5.7.2, 3.5.7.3, 3.5.7.4, 3.5.7.6.1</t>
-  </si>
-  <si>
     <t>A3.1, 3.13.9.5.7</t>
+  </si>
+  <si>
+    <t>This function stores configuration data prepared by the data preparation staff of an application project.</t>
+  </si>
+  <si>
+    <t>Stores all configuration data on-board.</t>
+  </si>
+  <si>
+    <t>Design choices</t>
+  </si>
+  <si>
+    <t>* WRITE TRAIN ETCS ID</t>
+  </si>
+  <si>
+    <t>At initialisation, data stored in the kernel are read by basic software and sent to application software through 3 different services:</t>
+  </si>
+  <si>
+    <t>* WRITE KM CONFIG for Euroradio key management parameters</t>
+  </si>
+  <si>
+    <t>* WRITE CONFIG DATA for system data</t>
+  </si>
+  <si>
+    <t>Alstom data dictionary</t>
+  </si>
+  <si>
+    <t>Configuration data are split into onboard configuration data for the generic parameters (not linked to a specific train) and  train configuration data for the train dependent parameters (braking characteristics,...)</t>
+  </si>
+  <si>
+    <t>Appendix: National values for Germany</t>
+  </si>
+  <si>
+    <t>A3.1, 3.12.1</t>
+  </si>
+  <si>
+    <t>A3.2</t>
+  </si>
+  <si>
+    <t>A3.2, 3.13.9.4.5</t>
+  </si>
+  <si>
+    <t>A3.1, 3.5.7</t>
+  </si>
+  <si>
+    <t>A.3.10</t>
+  </si>
+  <si>
+    <t>A.3.7</t>
+  </si>
+  <si>
+    <t>A.3.8</t>
+  </si>
+  <si>
+    <t>A.3.9</t>
+  </si>
+  <si>
+    <t>3.13.2.2.3</t>
+  </si>
+  <si>
+    <t>3.13.2.2.3.1</t>
+  </si>
+  <si>
+    <t>3.13.2.2.3.2</t>
+  </si>
+  <si>
+    <t>3.13.2.2.4</t>
+  </si>
+  <si>
+    <t>3.13.2.2.5</t>
+  </si>
+  <si>
+    <t>3.13.2.2.6</t>
+  </si>
+  <si>
+    <t>Calculation of the basic deceleration model</t>
+  </si>
+  <si>
+    <t>Calculation of the emergency brake equivalent time model</t>
+  </si>
+  <si>
+    <t>Calculation of the full service brake equivalent time model</t>
+  </si>
+  <si>
+    <t>Service Brake feedback model:</t>
+  </si>
+  <si>
+    <t>TractionModel:</t>
+  </si>
+  <si>
+    <t>BrakingModels:</t>
+  </si>
+  <si>
+    <t>Rotating mass model</t>
+  </si>
+  <si>
+    <t>3.13.4.3</t>
+  </si>
+  <si>
+    <t>21/11/2013 - v4 - version for review</t>
+  </si>
+  <si>
+    <t>* Data dictionary provided by Alstom contains a lot of data not directly related to subset-026. These data are not considered in this document (outside ETCS scope).</t>
+  </si>
+  <si>
+    <t>Subset 26, 3.18, 3.13.2/3/4/5/6, Appendix A</t>
+  </si>
+  <si>
+    <t>* Many data related to ATP model. Some examples are given, to be described in ATP function?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21">
     <font>
       <sz val="11"/>
@@ -1618,21 +1614,19 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1684,6 +1678,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2081,7 +2081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2246,8 +2246,59 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2268,6 +2319,24 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2276,75 +2345,12 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2375,10 +2381,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2470,6 +2486,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2504,6 +2521,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2679,25 +2697,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5">
-      <c r="A1" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
+      <c r="A1" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="1"/>
@@ -2750,1104 +2768,1146 @@
     </row>
     <row r="15" spans="1:7" ht="15.75">
       <c r="A15" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75">
       <c r="A17" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="16.5">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" ht="18.75">
-      <c r="A19" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75">
+      <c r="A18" s="16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:1" ht="18.75">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" ht="15.75">
-      <c r="A21" s="16" t="s">
-        <v>49</v>
-      </c>
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="18.75">
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1" ht="15.75">
-      <c r="A22" s="16"/>
-    </row>
-    <row r="23" spans="1:1" ht="18.75">
-      <c r="A23" s="17" t="s">
+      <c r="A22" s="16" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75">
+      <c r="A23" s="16"/>
+    </row>
+    <row r="24" spans="1:1" ht="15.75">
+      <c r="A24" s="16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75">
+      <c r="A25" s="16"/>
+    </row>
+    <row r="26" spans="1:1" ht="18.75">
+      <c r="A26" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18.75">
-      <c r="A24" s="17"/>
-    </row>
-    <row r="25" spans="1:1" ht="15.75">
-      <c r="A25" s="16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.75">
-      <c r="A26" s="16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="15.75">
-      <c r="A27" s="16" t="s">
-        <v>208</v>
-      </c>
+    <row r="27" spans="1:1" ht="18.75">
+      <c r="A27" s="17"/>
     </row>
     <row r="28" spans="1:1" ht="15.75">
       <c r="A28" s="16" t="s">
-        <v>207</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75">
       <c r="A29" s="16" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75">
       <c r="A30" s="16" t="s">
-        <v>205</v>
+        <v>452</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75">
-      <c r="A31" s="16"/>
-    </row>
-    <row r="32" spans="1:1" ht="18.75">
-      <c r="A32" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75">
-      <c r="A34" s="23" t="s">
+      <c r="A31" s="16" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75">
+      <c r="A32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75">
+      <c r="A33" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.75">
+      <c r="A34" s="17"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75">
+      <c r="A35" s="16" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75">
+      <c r="A36" s="17"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75">
+      <c r="A37" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75">
+      <c r="A38" s="16" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75">
+      <c r="A39" s="16" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75">
+      <c r="A40" s="16" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75">
+      <c r="A41" s="16"/>
+    </row>
+    <row r="42" spans="1:6" ht="18.75">
+      <c r="A42" s="17" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75">
+      <c r="A44" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75">
+      <c r="A45" s="23"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75">
+      <c r="A46" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A47" s="23"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A48" s="62"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="66"/>
+      <c r="F48" s="67"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A49" s="62"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="68" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75">
-      <c r="A35" s="23"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75">
-      <c r="A36" s="24" t="s">
+      <c r="E49" s="69"/>
+      <c r="F49" s="70"/>
+    </row>
+    <row r="50" spans="1:6" ht="34.5" thickBot="1">
+      <c r="A50" s="71"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="25" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A37" s="23"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A38" s="76"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="79" t="s">
+      <c r="E50" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1">
+      <c r="A51" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="80"/>
-      <c r="F38" s="81"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A39" s="76"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="82" t="s">
+      <c r="B51" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="83"/>
-      <c r="F39" s="84"/>
-    </row>
-    <row r="40" spans="1:6" ht="34.5" thickBot="1">
-      <c r="A40" s="85"/>
-      <c r="B40" s="86"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="25" t="s">
+      <c r="C51" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="74" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="27" thickBot="1">
+      <c r="A52" s="75"/>
+      <c r="B52" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1">
-      <c r="A41" s="88" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="88" t="s">
+      <c r="C52" s="75"/>
+      <c r="D52" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+    </row>
+    <row r="53" spans="1:6" ht="51.75" thickBot="1">
+      <c r="A53" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="88" t="s">
+      <c r="C53" s="30" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="27" thickBot="1">
-      <c r="A42" s="89"/>
-      <c r="B42" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="89"/>
-      <c r="D42" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
-    </row>
-    <row r="43" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A43" s="28" t="s">
+      <c r="D53" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="E53" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="39" thickBot="1">
+      <c r="A54" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="B54" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="C54" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="D54" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A55" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="39" thickBot="1">
+      <c r="A56" s="77"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="39" thickBot="1">
+      <c r="A57" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="39" thickBot="1">
-      <c r="A44" s="28" t="s">
+      <c r="D57" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A45" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="39" thickBot="1">
-      <c r="A46" s="60"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="34" t="s">
+      <c r="E57" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="64.5" thickBot="1">
+      <c r="A58" s="28" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="39" thickBot="1">
-      <c r="A47" s="28" t="s">
+      <c r="B58" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="C58" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" s="31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="64.5" thickBot="1">
-      <c r="A48" s="28" t="s">
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="29" t="s">
+    </row>
+    <row r="59" spans="1:6" ht="15" customHeight="1">
+      <c r="A59" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="B59" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="34" t="s">
+      <c r="C59" s="80" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1">
-      <c r="A49" s="59" t="s">
+      <c r="D59" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" s="35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="51.75" thickBot="1">
+      <c r="A60" s="77"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="61" t="s">
+      <c r="E60" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F60" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A61" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="63" t="s">
+      <c r="B61" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A50" s="60"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="36" t="s">
+      <c r="C61" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="128.25" thickBot="1">
+      <c r="A62" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E50" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="F50" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A51" s="28" t="s">
+      <c r="B62" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="C62" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F51" s="31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="128.25" thickBot="1">
-      <c r="A52" s="28" t="s">
+      <c r="D62" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="E62" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="77.25" thickBot="1">
+      <c r="A63" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="B63" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="C63" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E52" s="31" t="s">
+      <c r="D63" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="90" thickBot="1">
+      <c r="A64" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="77.25" thickBot="1">
-      <c r="A53" s="28" t="s">
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="31" t="s">
+    </row>
+    <row r="65" spans="1:6" ht="51.75" thickBot="1">
+      <c r="A65" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="F53" s="31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="90" thickBot="1">
-      <c r="A54" s="28" t="s">
+      <c r="B65" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="C65" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A55" s="28" t="s">
+      <c r="D65" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E55" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="F55" s="31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="64.5" thickBot="1">
-      <c r="A56" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="77.25" thickBot="1">
-      <c r="A57" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="F57" s="37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="115.5" thickBot="1">
-      <c r="A58" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="F58" s="40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A59" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="E59" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F59" s="31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="102.75" thickBot="1">
-      <c r="A60" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D60" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="E60" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="F60" s="31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="90" thickBot="1">
-      <c r="A61" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="F61" s="33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="90" thickBot="1">
-      <c r="A62" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D62" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E62" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="F62" s="42" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="64.5" thickBot="1">
-      <c r="A63" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B63" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D63" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="F63" s="31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="102.75" thickBot="1">
-      <c r="A64" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="D64" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E64" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="F64" s="31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="77.25" thickBot="1">
-      <c r="A65" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B65" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="D65" s="31" t="s">
-        <v>137</v>
-      </c>
       <c r="E65" s="31" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="F65" s="31" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="64.5" thickBot="1">
       <c r="A66" s="28" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="F66" s="31" t="s">
-        <v>120</v>
+        <v>92</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="F66" s="37" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="77.25" thickBot="1">
       <c r="A67" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="F67" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="115.5" thickBot="1">
+      <c r="A68" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E68" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F68" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="51.75" thickBot="1">
+      <c r="A69" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F69" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="102.75" thickBot="1">
+      <c r="A70" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E70" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F70" s="31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="90" thickBot="1">
+      <c r="A71" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" s="33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="90" thickBot="1">
+      <c r="A72" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="F72" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="64.5" thickBot="1">
+      <c r="A73" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F73" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="102.75" thickBot="1">
+      <c r="A74" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F74" s="31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="77.25" thickBot="1">
+      <c r="A75" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F75" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="64.5" thickBot="1">
+      <c r="A76" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F76" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="77.25" thickBot="1">
+      <c r="A77" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F77" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="77.25" thickBot="1">
+      <c r="A78" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B78" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="B67" s="29" t="s">
+      <c r="C78" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D67" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E67" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="F67" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="77.25" thickBot="1">
-      <c r="A68" s="28" t="s">
+      <c r="D78" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E78" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="F78" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="B68" s="29" t="s">
+    </row>
+    <row r="79" spans="1:6" ht="77.25" thickBot="1">
+      <c r="A79" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="B79" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D68" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="E68" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="F68" s="34" t="s">
+      <c r="C79" s="30">
+        <v>0</v>
+      </c>
+      <c r="D79" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F79" s="34" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="77.25" thickBot="1">
-      <c r="A69" s="28" t="s">
+    <row r="80" spans="1:6" ht="37.5" customHeight="1">
+      <c r="A80" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B80" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C69" s="30">
-        <v>0</v>
-      </c>
-      <c r="D69" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="E69" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="F69" s="34" t="s">
+      <c r="C80" s="80">
+        <v>9999999.9900000002</v>
+      </c>
+      <c r="D80" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="E80" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="F80" s="41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="25.5">
+      <c r="A81" s="84"/>
+      <c r="B81" s="85"/>
+      <c r="C81" s="86"/>
+      <c r="D81" s="88"/>
+      <c r="E81" s="91"/>
+      <c r="F81" s="41" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A70" s="59" t="s">
+    <row r="82" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A82" s="77"/>
+      <c r="B82" s="79"/>
+      <c r="C82" s="81"/>
+      <c r="D82" s="89"/>
+      <c r="E82" s="92"/>
+      <c r="F82" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="B70" s="61" t="s">
+    </row>
+    <row r="83" spans="1:6" ht="90" thickBot="1">
+      <c r="A83" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="C70" s="63">
-        <v>9999999.9900000002</v>
-      </c>
-      <c r="D70" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="E70" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="F70" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="25.5">
-      <c r="A71" s="69"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="41" t="s">
+      <c r="B83" s="29" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A72" s="60"/>
-      <c r="B72" s="62"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="68"/>
-      <c r="F72" s="34" t="s">
+      <c r="C83" s="30" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="90" thickBot="1">
-      <c r="A73" s="28" t="s">
+      <c r="D83" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E83" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F83" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="B73" s="29" t="s">
+    </row>
+    <row r="84" spans="1:6" ht="38.25">
+      <c r="A84" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="C73" s="30" t="s">
+      <c r="B84" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="D73" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="E73" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="F73" s="34" t="s">
+      <c r="C84" s="80" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="38.25">
-      <c r="A74" s="59" t="s">
+      <c r="D84" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="E84" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="F84" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="B74" s="61" t="s">
+    </row>
+    <row r="85" spans="1:6" ht="51">
+      <c r="A85" s="84"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="86"/>
+      <c r="D85" s="88"/>
+      <c r="E85" s="91"/>
+      <c r="F85" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="C74" s="63" t="s">
+    </row>
+    <row r="86" spans="1:6" ht="51">
+      <c r="A86" s="84"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="86"/>
+      <c r="D86" s="88"/>
+      <c r="E86" s="91"/>
+      <c r="F86" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="D74" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="E74" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="F74" s="41" t="s">
+    </row>
+    <row r="87" spans="1:6" ht="51">
+      <c r="A87" s="84"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="88"/>
+      <c r="E87" s="91"/>
+      <c r="F87" s="41" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="51">
-      <c r="A75" s="69"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="41" t="s">
+    <row r="88" spans="1:6" ht="51.75" thickBot="1">
+      <c r="A88" s="77"/>
+      <c r="B88" s="79"/>
+      <c r="C88" s="81"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="92"/>
+      <c r="F88" s="34" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="51">
-      <c r="A76" s="69"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="41" t="s">
+    <row r="89" spans="1:6" ht="38.25">
+      <c r="A89" s="76" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="51">
-      <c r="A77" s="69"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="41" t="s">
+      <c r="B89" s="78" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A78" s="60"/>
-      <c r="B78" s="62"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="68"/>
-      <c r="F78" s="34" t="s">
+      <c r="C89" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D89" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="E89" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="F89" s="41" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="38.25">
-      <c r="A79" s="59" t="s">
+    <row r="90" spans="1:6" ht="38.25">
+      <c r="A90" s="84"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="86"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="91"/>
+      <c r="F90" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="B79" s="61" t="s">
+    </row>
+    <row r="91" spans="1:6" ht="38.25">
+      <c r="A91" s="84"/>
+      <c r="B91" s="85"/>
+      <c r="C91" s="86"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="91"/>
+      <c r="F91" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C79" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="D79" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="E79" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="F79" s="41" t="s">
+    </row>
+    <row r="92" spans="1:6" ht="39" thickBot="1">
+      <c r="A92" s="77"/>
+      <c r="B92" s="79"/>
+      <c r="C92" s="81"/>
+      <c r="D92" s="89"/>
+      <c r="E92" s="92"/>
+      <c r="F92" s="34" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="38.25">
-      <c r="A80" s="69"/>
-      <c r="B80" s="70"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="41" t="s">
+    <row r="93" spans="1:6" ht="38.25">
+      <c r="A93" s="76" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="38.25">
-      <c r="A81" s="69"/>
-      <c r="B81" s="70"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="73"/>
-      <c r="F81" s="41" t="s">
+      <c r="B93" s="78" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="39" thickBot="1">
-      <c r="A82" s="60"/>
-      <c r="B82" s="62"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="68"/>
-      <c r="F82" s="34" t="s">
+      <c r="C93" s="80" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="38.25">
-      <c r="A83" s="59" t="s">
+      <c r="D93" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="E93" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="F93" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="B83" s="61" t="s">
+    </row>
+    <row r="94" spans="1:6" ht="38.25">
+      <c r="A94" s="84"/>
+      <c r="B94" s="85"/>
+      <c r="C94" s="86"/>
+      <c r="D94" s="88"/>
+      <c r="E94" s="91"/>
+      <c r="F94" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="C83" s="63" t="s">
+    </row>
+    <row r="95" spans="1:6" ht="38.25">
+      <c r="A95" s="84"/>
+      <c r="B95" s="85"/>
+      <c r="C95" s="86"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="91"/>
+      <c r="F95" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="D83" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="E83" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="F83" s="41" t="s">
+    </row>
+    <row r="96" spans="1:6" ht="38.25">
+      <c r="A96" s="84"/>
+      <c r="B96" s="85"/>
+      <c r="C96" s="86"/>
+      <c r="D96" s="88"/>
+      <c r="E96" s="91"/>
+      <c r="F96" s="41" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="38.25">
-      <c r="A84" s="69"/>
-      <c r="B84" s="70"/>
-      <c r="C84" s="71"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="41" t="s">
+    <row r="97" spans="1:6" ht="39" thickBot="1">
+      <c r="A97" s="77"/>
+      <c r="B97" s="79"/>
+      <c r="C97" s="81"/>
+      <c r="D97" s="89"/>
+      <c r="E97" s="92"/>
+      <c r="F97" s="34" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="38.25">
-      <c r="A85" s="69"/>
-      <c r="B85" s="70"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="73"/>
-      <c r="F85" s="41" t="s">
+    <row r="98" spans="1:6" ht="77.25" thickBot="1">
+      <c r="A98" s="28" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="38.25">
-      <c r="A86" s="69"/>
-      <c r="B86" s="70"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="72"/>
-      <c r="E86" s="73"/>
-      <c r="F86" s="41" t="s">
+      <c r="B98" s="29" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="39" thickBot="1">
-      <c r="A87" s="60"/>
-      <c r="B87" s="62"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="66"/>
-      <c r="E87" s="68"/>
-      <c r="F87" s="34" t="s">
+      <c r="C98" s="30" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="77.25" thickBot="1">
-      <c r="A88" s="28" t="s">
+      <c r="D98" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E98" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F98" s="34">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="102.75" thickBot="1">
+      <c r="A99" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B88" s="29" t="s">
+      <c r="B99" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="C88" s="30" t="s">
+      <c r="C99" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="D88" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="E88" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="F88" s="34">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="102.75" thickBot="1">
-      <c r="A89" s="28" t="s">
+      <c r="D99" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E99" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F99" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="B89" s="29" t="s">
+    </row>
+    <row r="100" spans="1:6" ht="102.75" thickBot="1">
+      <c r="A100" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="C89" s="30" t="s">
+      <c r="B100" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D89" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="E89" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="F89" s="34" t="s">
+      <c r="C100" s="30" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="102.75" thickBot="1">
-      <c r="A90" s="28" t="s">
+      <c r="D100" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E100" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F100" s="34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="102.75" thickBot="1">
+      <c r="A101" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="B90" s="29" t="s">
+      <c r="B101" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="C90" s="30" t="s">
+      <c r="C101" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D101" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E101" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F101" s="34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="75.75" customHeight="1">
+      <c r="A102" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="D90" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="E90" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="F90" s="34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="102.75" thickBot="1">
-      <c r="A91" s="28" t="s">
+      <c r="B102" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="B91" s="29" t="s">
+      <c r="C102" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D102" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="E102" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="F102" s="46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A103" s="77"/>
+      <c r="B103" s="79"/>
+      <c r="C103" s="81"/>
+      <c r="D103" s="89"/>
+      <c r="E103" s="92"/>
+      <c r="F103" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="C91" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="D91" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="E91" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="F91" s="34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="75.75" customHeight="1">
-      <c r="A92" s="59" t="s">
+    </row>
+    <row r="104" spans="1:6" ht="75.75" customHeight="1">
+      <c r="A104" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="B92" s="61" t="s">
+      <c r="B104" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="C92" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="D92" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="E92" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="F92" s="46" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A93" s="60"/>
-      <c r="B93" s="62"/>
-      <c r="C93" s="64"/>
-      <c r="D93" s="66"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="75.75" customHeight="1">
-      <c r="A94" s="59" t="s">
-        <v>195</v>
-      </c>
-      <c r="B94" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="C94" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="D94" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="E94" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="F94" s="46" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A95" s="60"/>
-      <c r="B95" s="62"/>
-      <c r="C95" s="64"/>
-      <c r="D95" s="66"/>
-      <c r="E95" s="68"/>
-      <c r="F95" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15.75">
-      <c r="A96" s="23"/>
+      <c r="C104" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D104" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="E104" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="F104" s="46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A105" s="77"/>
+      <c r="B105" s="79"/>
+      <c r="C105" s="81"/>
+      <c r="D105" s="89"/>
+      <c r="E105" s="92"/>
+      <c r="F105" s="36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.75">
+      <c r="A106" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="D93:D97"/>
+    <mergeCell ref="E93:E97"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="E89:E92"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="E84:E88"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="E79:E82"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="E83:E87"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="A48:C49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A50:C50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3855,11 +3915,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3907,19 +3970,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="31.5">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="93" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -3934,16 +3997,16 @@
       <c r="I2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="93" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="92"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="10" t="s">
         <v>23</v>
       </c>
@@ -3956,27 +4019,27 @@
       <c r="I3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="92"/>
+      <c r="J3" s="94"/>
     </row>
     <row r="4" spans="1:10" ht="32.25" thickBot="1">
       <c r="A4" s="13">
         <v>1</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>198</v>
+        <v>420</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
@@ -3995,16 +4058,19 @@
     <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4046,28 +4112,28 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="93" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="93" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="48" t="s">
@@ -4075,31 +4141,31 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
       <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
       <c r="I3" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="95"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
       <c r="I4" s="50"/>
     </row>
     <row r="5" spans="1:9" ht="94.5">
@@ -4107,17 +4173,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="D5" s="52"/>
       <c r="E5" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="G5" s="52" t="s">
         <v>41</v>
@@ -4130,17 +4196,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D6" s="52"/>
       <c r="E6" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="G6" s="52" t="s">
         <v>41</v>
@@ -4154,14 +4220,14 @@
       </c>
       <c r="B7" s="52"/>
       <c r="C7" s="52" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="G7" s="52" t="s">
         <v>41</v>
@@ -4175,14 +4241,14 @@
       </c>
       <c r="B8" s="52"/>
       <c r="C8" s="52" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="52" t="s">
         <v>212</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>226</v>
       </c>
       <c r="G8" s="52" t="s">
         <v>41</v>
@@ -4196,14 +4262,14 @@
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="52" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D9" s="52"/>
       <c r="E9" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="G9" s="52" t="s">
         <v>41</v>
@@ -4217,14 +4283,14 @@
       </c>
       <c r="B10" s="52"/>
       <c r="C10" s="52" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D10" s="52"/>
       <c r="E10" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="G10" s="52" t="s">
         <v>41</v>
@@ -4238,14 +4304,14 @@
       </c>
       <c r="B11" s="52"/>
       <c r="C11" s="52" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D11" s="52"/>
       <c r="E11" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="G11" s="52" t="s">
         <v>41</v>
@@ -4259,14 +4325,14 @@
       </c>
       <c r="B12" s="52"/>
       <c r="C12" s="52" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D12" s="52"/>
       <c r="E12" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G12" s="52" t="s">
         <v>41</v>
@@ -4280,14 +4346,14 @@
       </c>
       <c r="B13" s="52"/>
       <c r="C13" s="52" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D13" s="52"/>
       <c r="E13" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G13" s="52" t="s">
         <v>41</v>
@@ -4301,21 +4367,21 @@
       </c>
       <c r="B14" s="52"/>
       <c r="C14" s="52" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="D14" s="52"/>
       <c r="E14" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="G14" s="52" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="52"/>
       <c r="I14" s="52" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="94.5">
@@ -4324,21 +4390,21 @@
       </c>
       <c r="B15" s="52"/>
       <c r="C15" s="52" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="D15" s="52"/>
       <c r="E15" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="G15" s="52" t="s">
         <v>41</v>
       </c>
       <c r="H15" s="52"/>
       <c r="I15" s="52" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="78.75">
@@ -4347,14 +4413,14 @@
       </c>
       <c r="B16" s="52"/>
       <c r="C16" s="52" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="D16" s="52"/>
       <c r="E16" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="G16" s="52" t="s">
         <v>41</v>
@@ -4368,14 +4434,14 @@
       </c>
       <c r="B17" s="52"/>
       <c r="C17" s="52" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="D17" s="52"/>
       <c r="E17" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="G17" s="52" t="s">
         <v>41</v>
@@ -4389,14 +4455,14 @@
       </c>
       <c r="B18" s="52"/>
       <c r="C18" s="52" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="D18" s="52"/>
       <c r="E18" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F18" s="52" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="G18" s="52" t="s">
         <v>41</v>
@@ -4410,14 +4476,14 @@
       </c>
       <c r="B19" s="52"/>
       <c r="C19" s="52" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="D19" s="52"/>
       <c r="E19" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="G19" s="52" t="s">
         <v>41</v>
@@ -4431,14 +4497,14 @@
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="52" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="D20" s="52"/>
       <c r="E20" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="G20" s="52" t="s">
         <v>41</v>
@@ -4452,14 +4518,14 @@
       </c>
       <c r="B21" s="52"/>
       <c r="C21" s="52" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="D21" s="52"/>
       <c r="E21" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F21" s="52" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="G21" s="52" t="s">
         <v>41</v>
@@ -4473,14 +4539,14 @@
       </c>
       <c r="B22" s="52"/>
       <c r="C22" s="52" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F22" s="52" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="G22" s="52" t="s">
         <v>41</v>
@@ -4494,14 +4560,14 @@
       </c>
       <c r="B23" s="52"/>
       <c r="C23" s="52" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F23" s="52" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="G23" s="52" t="s">
         <v>41</v>
@@ -4515,14 +4581,14 @@
       </c>
       <c r="B24" s="52"/>
       <c r="C24" s="52" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="D24" s="52"/>
       <c r="E24" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F24" s="52" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="G24" s="52" t="s">
         <v>41</v>
@@ -4536,14 +4602,14 @@
       </c>
       <c r="B25" s="52"/>
       <c r="C25" s="52" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="D25" s="52"/>
       <c r="E25" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="G25" s="52" t="s">
         <v>41</v>
@@ -4557,14 +4623,14 @@
       </c>
       <c r="B26" s="52"/>
       <c r="C26" s="52" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="D26" s="52"/>
       <c r="E26" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F26" s="52" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="G26" s="52" t="s">
         <v>41</v>
@@ -4578,14 +4644,14 @@
       </c>
       <c r="B27" s="52"/>
       <c r="C27" s="52" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="D27" s="52"/>
       <c r="E27" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F27" s="52" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="G27" s="52" t="s">
         <v>41</v>
@@ -4599,14 +4665,14 @@
       </c>
       <c r="B28" s="52"/>
       <c r="C28" s="52" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="D28" s="52"/>
       <c r="E28" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F28" s="52" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="G28" s="52" t="s">
         <v>41</v>
@@ -4620,14 +4686,14 @@
       </c>
       <c r="B29" s="52"/>
       <c r="C29" s="52" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="D29" s="52"/>
       <c r="E29" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F29" s="52" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="G29" s="52" t="s">
         <v>41</v>
@@ -4641,14 +4707,14 @@
       </c>
       <c r="B30" s="52"/>
       <c r="C30" s="52" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="D30" s="52"/>
       <c r="E30" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F30" s="52" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="G30" s="52" t="s">
         <v>41</v>
@@ -4662,14 +4728,14 @@
       </c>
       <c r="B31" s="52"/>
       <c r="C31" s="52" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="D31" s="52"/>
       <c r="E31" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F31" s="52" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="G31" s="52" t="s">
         <v>41</v>
@@ -4683,14 +4749,14 @@
       </c>
       <c r="B32" s="52"/>
       <c r="C32" s="52" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="D32" s="52"/>
       <c r="E32" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F32" s="52" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="G32" s="52" t="s">
         <v>41</v>
@@ -4704,14 +4770,14 @@
       </c>
       <c r="B33" s="52"/>
       <c r="C33" s="52" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="D33" s="52"/>
       <c r="E33" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F33" s="52" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="G33" s="52" t="s">
         <v>41</v>
@@ -4725,14 +4791,14 @@
       </c>
       <c r="B34" s="52"/>
       <c r="C34" s="52" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="D34" s="52"/>
       <c r="E34" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F34" s="52" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="G34" s="52" t="s">
         <v>41</v>
@@ -4746,14 +4812,14 @@
       </c>
       <c r="B35" s="52"/>
       <c r="C35" s="52" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="D35" s="52"/>
       <c r="E35" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F35" s="52" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="G35" s="52" t="s">
         <v>41</v>
@@ -4767,14 +4833,14 @@
       </c>
       <c r="B36" s="52"/>
       <c r="C36" s="52" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="D36" s="52"/>
       <c r="E36" s="52" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F36" s="52" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="G36" s="52" t="s">
         <v>41</v>
@@ -4810,15 +4876,19 @@
     <mergeCell ref="F2:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="57" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4834,76 +4904,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="99" t="s">
         <v>33</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="99" t="s">
+      <c r="K1" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="97" t="s">
+      <c r="L1" s="99" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
       <c r="I2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="98"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="100"/>
     </row>
     <row r="3" spans="1:12" ht="31.5">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="93" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="91" t="s">
+      <c r="F3" s="93" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -4918,22 +4988,22 @@
       <c r="J3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="93" t="s">
+      <c r="K3" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="91" t="s">
+      <c r="L3" s="93" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
       <c r="G4" s="9" t="s">
         <v>23</v>
       </c>
@@ -4946,13 +5016,11 @@
       <c r="J4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="94"/>
-      <c r="L4" s="92"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="94"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="55" t="s">
-        <v>43</v>
-      </c>
+      <c r="A5" s="55"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
@@ -4966,11 +5034,15 @@
       <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="A6" s="105" t="s">
+        <v>447</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>232</v>
+      </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
@@ -4978,15 +5050,21 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="K6" s="21" t="s">
+        <v>231</v>
+      </c>
       <c r="L6" s="21"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" ht="45">
       <c r="A7" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+        <v>228</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>229</v>
+      </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
@@ -4994,16 +5072,14 @@
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="K7" s="21" t="s">
+        <v>230</v>
+      </c>
       <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>212</v>
-      </c>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5016,13 +5092,11 @@
       <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C9" s="21"/>
+      <c r="A9" s="104" t="s">
+        <v>448</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
@@ -5030,17 +5104,15 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="K9" s="21" t="s">
+        <v>437</v>
+      </c>
       <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C10" s="21"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -5051,53 +5123,51 @@
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="55"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+    <row r="11" spans="1:12" ht="30">
+      <c r="A11" s="104" t="s">
+        <v>345</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>346</v>
+      </c>
+      <c r="D11" s="58"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
+      <c r="K11" s="21" t="s">
+        <v>438</v>
+      </c>
       <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="D12" s="21"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="21" t="s">
-        <v>246</v>
-      </c>
+      <c r="K12" s="21"/>
       <c r="L12" s="21"/>
     </row>
-    <row r="13" spans="1:12" ht="45">
-      <c r="A13" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="D13" s="21"/>
+    <row r="13" spans="1:12" ht="30">
+      <c r="A13" s="104" t="s">
+        <v>347</v>
+      </c>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="D13" s="58"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -5105,15 +5175,15 @@
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21" t="s">
-        <v>245</v>
+        <v>439</v>
       </c>
       <c r="L13" s="21"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="A14" s="106"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -5123,17 +5193,13 @@
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="1:12" ht="30">
-      <c r="A15" s="57" t="s">
-        <v>362</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>361</v>
-      </c>
-      <c r="D15" s="21"/>
+    <row r="15" spans="1:12">
+      <c r="A15" s="104" t="s">
+        <v>349</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -5141,20 +5207,14 @@
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21" t="s">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="L15" s="21"/>
     </row>
-    <row r="16" spans="1:12" ht="30">
-      <c r="A16" s="58" t="s">
-        <v>363</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>364</v>
-      </c>
+    <row r="16" spans="1:12">
+      <c r="A16" s="106"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="58"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -5166,8 +5226,8 @@
       <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="57" t="s">
-        <v>365</v>
+      <c r="A17" s="104" t="s">
+        <v>350</v>
       </c>
       <c r="B17" s="58"/>
       <c r="C17" s="58"/>
@@ -5179,14 +5239,12 @@
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
       <c r="K17" s="21" t="s">
-        <v>377</v>
+        <v>441</v>
       </c>
       <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="57" t="s">
-        <v>375</v>
-      </c>
+      <c r="A18" s="106"/>
       <c r="B18" s="58"/>
       <c r="C18" s="58"/>
       <c r="D18" s="58"/>
@@ -5196,14 +5254,12 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="21" t="s">
-        <v>377</v>
-      </c>
+      <c r="K18" s="21"/>
       <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="57" t="s">
-        <v>366</v>
+      <c r="A19" s="104" t="s">
+        <v>351</v>
       </c>
       <c r="B19" s="58"/>
       <c r="C19" s="58"/>
@@ -5215,17 +5271,13 @@
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21" t="s">
-        <v>377</v>
+        <v>442</v>
       </c>
       <c r="L19" s="21"/>
     </row>
-    <row r="20" spans="1:12" ht="30">
-      <c r="A20" s="57" t="s">
-        <v>376</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>212</v>
-      </c>
+    <row r="20" spans="1:12">
+      <c r="A20" s="108"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="58"/>
       <c r="D20" s="58"/>
       <c r="E20" s="21"/>
@@ -5234,14 +5286,12 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="21" t="s">
-        <v>407</v>
-      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="58" t="s">
-        <v>367</v>
+      <c r="A21" s="107" t="s">
+        <v>449</v>
       </c>
       <c r="B21" s="58"/>
       <c r="C21" s="58"/>
@@ -5252,13 +5302,13 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
+      <c r="K21" s="21" t="s">
+        <v>450</v>
+      </c>
       <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="58" t="s">
-        <v>368</v>
-      </c>
+      <c r="A22" s="103"/>
       <c r="B22" s="58"/>
       <c r="C22" s="58"/>
       <c r="D22" s="58"/>
@@ -5271,9 +5321,9 @@
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="58" t="s">
-        <v>369</v>
+    <row r="23" spans="1:12" ht="30">
+      <c r="A23" s="104" t="s">
+        <v>443</v>
       </c>
       <c r="B23" s="58"/>
       <c r="C23" s="58"/>
@@ -5284,17 +5334,15 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
+      <c r="K23" s="21" t="s">
+        <v>434</v>
+      </c>
       <c r="L23" s="21"/>
     </row>
-    <row r="24" spans="1:12" ht="30">
-      <c r="A24" s="58" t="s">
-        <v>370</v>
-      </c>
+    <row r="24" spans="1:12">
+      <c r="A24" s="106"/>
       <c r="B24" s="58"/>
-      <c r="C24" s="58" t="s">
-        <v>371</v>
-      </c>
+      <c r="C24" s="58"/>
       <c r="D24" s="58"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
@@ -5305,9 +5353,9 @@
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="58" t="s">
-        <v>372</v>
+    <row r="25" spans="1:12" ht="30">
+      <c r="A25" s="104" t="s">
+        <v>444</v>
       </c>
       <c r="B25" s="58"/>
       <c r="C25" s="58"/>
@@ -5318,13 +5366,13 @@
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
+      <c r="K25" s="21" t="s">
+        <v>435</v>
+      </c>
       <c r="L25" s="21"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="58" t="s">
-        <v>373</v>
-      </c>
+      <c r="A26" s="106"/>
       <c r="B26" s="58"/>
       <c r="C26" s="58"/>
       <c r="D26" s="58"/>
@@ -5337,9 +5385,9 @@
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="58" t="s">
-        <v>374</v>
+    <row r="27" spans="1:12" ht="30">
+      <c r="A27" s="104" t="s">
+        <v>445</v>
       </c>
       <c r="B27" s="58"/>
       <c r="C27" s="58"/>
@@ -5350,34 +5398,22 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
+      <c r="K27" s="21" t="s">
+        <v>436</v>
+      </c>
       <c r="L27" s="21"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
+      <c r="A28" s="106"/>
       <c r="L28" s="21"/>
     </row>
     <row r="29" spans="1:12" ht="30">
-      <c r="A29" s="55" t="s">
-        <v>248</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="D29" s="21"/>
+      <c r="A29" s="104" t="s">
+        <v>446</v>
+      </c>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -5385,19 +5421,19 @@
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21" t="s">
-        <v>258</v>
+        <v>433</v>
       </c>
       <c r="L29" s="21"/>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="21" t="s">
-        <v>241</v>
+    <row r="30" spans="1:12" ht="30">
+      <c r="A30" s="55" t="s">
+        <v>233</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
@@ -5407,14 +5443,20 @@
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="L30" s="21"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
+      <c r="A31" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>234</v>
+      </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
@@ -5422,13 +5464,13 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
+      <c r="K31" s="21" t="s">
+        <v>243</v>
+      </c>
       <c r="L31" s="21"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="56" t="s">
-        <v>359</v>
-      </c>
+      <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
@@ -5442,11 +5484,11 @@
       <c r="L32" s="21"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="21" t="s">
-        <v>253</v>
+      <c r="A33" s="56" t="s">
+        <v>343</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
@@ -5457,19 +5499,19 @@
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21" t="s">
-        <v>426</v>
+        <v>237</v>
       </c>
       <c r="L33" s="21"/>
     </row>
     <row r="34" spans="1:12" ht="30">
       <c r="A34" s="21" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="54">
@@ -5481,19 +5523,19 @@
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="L34" s="21"/>
     </row>
     <row r="35" spans="1:12" ht="30">
       <c r="A35" s="55" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="54">
@@ -5505,21 +5547,21 @@
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="L35" s="21"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="21"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
@@ -5527,21 +5569,21 @@
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="L36" s="21"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="21"/>
       <c r="B37" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C37" s="101" t="s">
-        <v>261</v>
+        <v>198</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>245</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="21" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
@@ -5549,21 +5591,21 @@
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="L37" s="21"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="55"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="101" t="s">
-        <v>251</v>
+        <v>198</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>236</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="21" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
@@ -5571,12 +5613,12 @@
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
       <c r="K38" s="21" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="L38" s="21"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="21"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
@@ -5590,18 +5632,16 @@
       <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:12" ht="30">
-      <c r="A40" s="21" t="s">
-        <v>265</v>
-      </c>
+      <c r="A40" s="21"/>
       <c r="B40" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="21" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
@@ -5609,23 +5649,23 @@
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
       <c r="K40" s="21" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="L40" s="21"/>
     </row>
     <row r="41" spans="1:12" ht="30">
-      <c r="A41" s="55" t="s">
-        <v>266</v>
+      <c r="A41" s="21" t="s">
+        <v>249</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="21" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
@@ -5633,23 +5673,23 @@
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
       <c r="K41" s="21" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="L41" s="21"/>
     </row>
     <row r="42" spans="1:12" ht="30">
-      <c r="A42" s="21" t="s">
-        <v>396</v>
+      <c r="A42" s="55" t="s">
+        <v>250</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="21" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
@@ -5657,23 +5697,23 @@
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
       <c r="K42" s="21" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="L42" s="21"/>
     </row>
     <row r="43" spans="1:12" ht="30">
       <c r="A43" s="21" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -5681,23 +5721,23 @@
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
       <c r="K43" s="21" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="L43" s="21"/>
     </row>
     <row r="44" spans="1:12" ht="30">
-      <c r="A44" s="55" t="s">
-        <v>274</v>
+      <c r="A44" s="21" t="s">
+        <v>371</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
@@ -5705,23 +5745,23 @@
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="L44" s="21"/>
     </row>
     <row r="45" spans="1:12" ht="30">
-      <c r="A45" s="21" t="s">
-        <v>401</v>
+      <c r="A45" s="55" t="s">
+        <v>258</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
@@ -5729,23 +5769,23 @@
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="L45" s="21"/>
     </row>
     <row r="46" spans="1:12" ht="30">
       <c r="A46" s="21" t="s">
-        <v>279</v>
+        <v>375</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="21" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
@@ -5753,23 +5793,23 @@
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="L46" s="21"/>
     </row>
     <row r="47" spans="1:12" ht="30">
-      <c r="A47" s="55" t="s">
-        <v>280</v>
+      <c r="A47" s="21" t="s">
+        <v>263</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D47" s="21"/>
       <c r="E47" s="21" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
@@ -5777,23 +5817,23 @@
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="L47" s="21"/>
     </row>
     <row r="48" spans="1:12" ht="30">
-      <c r="A48" s="21" t="s">
-        <v>285</v>
+      <c r="A48" s="55" t="s">
+        <v>264</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="21" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
@@ -5801,23 +5841,23 @@
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
       <c r="K48" s="21" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="L48" s="21"/>
     </row>
     <row r="49" spans="1:12" ht="30">
       <c r="A49" s="21" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="D49" s="21"/>
       <c r="E49" s="21" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
@@ -5825,23 +5865,23 @@
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
       <c r="K49" s="21" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="L49" s="21"/>
     </row>
     <row r="50" spans="1:12" ht="30">
-      <c r="A50" s="55" t="s">
-        <v>289</v>
+      <c r="A50" s="21" t="s">
+        <v>270</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="21" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
@@ -5849,23 +5889,23 @@
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
       <c r="K50" s="21" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="L50" s="21"/>
     </row>
     <row r="51" spans="1:12" ht="30">
-      <c r="A51" s="21" t="s">
-        <v>290</v>
+      <c r="A51" s="55" t="s">
+        <v>273</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="21" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
@@ -5873,23 +5913,23 @@
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
       <c r="K51" s="21" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="L51" s="21"/>
     </row>
     <row r="52" spans="1:12" ht="30">
       <c r="A52" s="21" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="21" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
@@ -5897,23 +5937,23 @@
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
       <c r="K52" s="21" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="L52" s="21"/>
     </row>
     <row r="53" spans="1:12" ht="30">
-      <c r="A53" s="55" t="s">
-        <v>297</v>
+      <c r="A53" s="21" t="s">
+        <v>278</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="21" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
@@ -5921,23 +5961,23 @@
       <c r="I53" s="21"/>
       <c r="J53" s="21"/>
       <c r="K53" s="21" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="L53" s="21"/>
     </row>
     <row r="54" spans="1:12" ht="30">
-      <c r="A54" s="21" t="s">
-        <v>300</v>
+      <c r="A54" s="55" t="s">
+        <v>281</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="21" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
@@ -5945,21 +5985,23 @@
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
       <c r="K54" s="21" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="L54" s="21"/>
     </row>
     <row r="55" spans="1:12" ht="45">
-      <c r="A55" s="21"/>
+      <c r="A55" s="21" t="s">
+        <v>284</v>
+      </c>
       <c r="B55" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="D55" s="21"/>
       <c r="E55" s="21" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
@@ -5967,23 +6009,21 @@
       <c r="I55" s="21"/>
       <c r="J55" s="21"/>
       <c r="K55" s="21" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="L55" s="21"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="21" t="s">
-        <v>304</v>
-      </c>
+      <c r="A56" s="21"/>
       <c r="B56" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
@@ -5991,23 +6031,23 @@
       <c r="I56" s="21"/>
       <c r="J56" s="21"/>
       <c r="K56" s="21" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="L56" s="21"/>
     </row>
     <row r="57" spans="1:12" ht="105">
       <c r="A57" s="21" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D57" s="21"/>
       <c r="E57" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
@@ -6015,21 +6055,23 @@
       <c r="I57" s="21"/>
       <c r="J57" s="21"/>
       <c r="K57" s="21" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="L57" s="21"/>
     </row>
     <row r="58" spans="1:12" ht="30">
-      <c r="A58" s="21"/>
+      <c r="A58" s="21" t="s">
+        <v>290</v>
+      </c>
       <c r="B58" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="D58" s="21"/>
       <c r="E58" s="21" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
@@ -6037,23 +6079,21 @@
       <c r="I58" s="21"/>
       <c r="J58" s="21"/>
       <c r="K58" s="21" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="L58" s="21"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="55" t="s">
-        <v>310</v>
-      </c>
+      <c r="A59" s="21"/>
       <c r="B59" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C59" s="101" t="s">
-        <v>311</v>
+        <v>198</v>
+      </c>
+      <c r="C59" s="60" t="s">
+        <v>295</v>
       </c>
       <c r="D59" s="21"/>
       <c r="E59" s="21" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
@@ -6061,21 +6101,23 @@
       <c r="I59" s="21"/>
       <c r="J59" s="21"/>
       <c r="K59" s="21" t="s">
-        <v>252</v>
+        <v>429</v>
       </c>
       <c r="L59" s="21"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="21"/>
+      <c r="A60" s="55" t="s">
+        <v>294</v>
+      </c>
       <c r="B60" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C60" s="101" t="s">
-        <v>313</v>
+        <v>198</v>
+      </c>
+      <c r="C60" s="60" t="s">
+        <v>297</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="21" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
@@ -6083,21 +6125,21 @@
       <c r="I60" s="21"/>
       <c r="J60" s="21"/>
       <c r="K60" s="21" t="s">
-        <v>252</v>
+        <v>429</v>
       </c>
       <c r="L60" s="21"/>
     </row>
     <row r="61" spans="1:12" ht="45">
       <c r="A61" s="21"/>
       <c r="B61" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C61" s="101" t="s">
-        <v>314</v>
+        <v>198</v>
+      </c>
+      <c r="C61" s="60" t="s">
+        <v>298</v>
       </c>
       <c r="D61" s="21"/>
       <c r="E61" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
@@ -6105,21 +6147,21 @@
       <c r="I61" s="21"/>
       <c r="J61" s="21"/>
       <c r="K61" s="21" t="s">
-        <v>252</v>
+        <v>429</v>
       </c>
       <c r="L61" s="21"/>
     </row>
     <row r="62" spans="1:12" ht="30">
-      <c r="A62" s="55"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="21" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
@@ -6127,21 +6169,21 @@
       <c r="I62" s="21"/>
       <c r="J62" s="21"/>
       <c r="K62" s="21" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="L62" s="21"/>
     </row>
     <row r="63" spans="1:12" ht="30">
-      <c r="A63" s="21"/>
+      <c r="A63" s="55"/>
       <c r="B63" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C63" s="101" t="s">
-        <v>316</v>
+        <v>198</v>
+      </c>
+      <c r="C63" s="59" t="s">
+        <v>300</v>
       </c>
       <c r="D63" s="21"/>
       <c r="E63" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
@@ -6149,21 +6191,21 @@
       <c r="I63" s="21"/>
       <c r="J63" s="21"/>
       <c r="K63" s="21" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="L63" s="21"/>
     </row>
-    <row r="64" spans="1:12" ht="60">
+    <row r="64" spans="1:12">
       <c r="A64" s="21"/>
       <c r="B64" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C64" s="102" t="s">
-        <v>317</v>
+        <v>198</v>
+      </c>
+      <c r="C64" s="60" t="s">
+        <v>301</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="21" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
@@ -6171,20 +6213,14 @@
       <c r="I64" s="21"/>
       <c r="J64" s="21"/>
       <c r="K64" s="21" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="L64" s="21"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="57" t="s">
-        <v>420</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>421</v>
-      </c>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
@@ -6192,13 +6228,13 @@
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
       <c r="J65" s="21"/>
-      <c r="K65" s="21" t="s">
-        <v>422</v>
-      </c>
+      <c r="K65" s="21"/>
       <c r="L65" s="21"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="21"/>
+      <c r="A66" s="56" t="s">
+        <v>342</v>
+      </c>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
@@ -6211,31 +6247,39 @@
       <c r="K66" s="21"/>
       <c r="L66" s="21"/>
     </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="56" t="s">
-        <v>358</v>
-      </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
+    <row r="67" spans="1:12" ht="30">
+      <c r="A67" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>303</v>
+      </c>
       <c r="D67" s="21"/>
       <c r="E67" s="21"/>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
+      <c r="I67" s="21" t="s">
+        <v>64</v>
+      </c>
       <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
+      <c r="K67" s="21" t="s">
+        <v>430</v>
+      </c>
       <c r="L67" s="21"/>
     </row>
-    <row r="68" spans="1:12" ht="30">
+    <row r="68" spans="1:12">
       <c r="A68" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="D68" s="21"/>
       <c r="E68" s="21"/>
@@ -6247,19 +6291,19 @@
       </c>
       <c r="J68" s="21"/>
       <c r="K68" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L68" s="21"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="D69" s="21"/>
       <c r="E69" s="21"/>
@@ -6267,23 +6311,23 @@
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
       <c r="I69" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J69" s="21"/>
       <c r="K69" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L69" s="21"/>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="21"/>
@@ -6291,23 +6335,23 @@
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
       <c r="I70" s="21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J70" s="21"/>
       <c r="K70" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L70" s="21"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="D71" s="21"/>
       <c r="E71" s="21"/>
@@ -6315,23 +6359,23 @@
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
       <c r="I71" s="21" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J71" s="21"/>
       <c r="K71" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L71" s="21"/>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="D72" s="21"/>
       <c r="E72" s="21"/>
@@ -6339,23 +6383,23 @@
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J72" s="21"/>
       <c r="K72" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L72" s="21"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" ht="30">
       <c r="A73" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="D73" s="21"/>
       <c r="E73" s="21"/>
@@ -6363,23 +6407,23 @@
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="21" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="J73" s="21"/>
       <c r="K73" s="21" t="s">
-        <v>252</v>
+        <v>431</v>
       </c>
       <c r="L73" s="21"/>
     </row>
     <row r="74" spans="1:12" ht="30">
       <c r="A74" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="D74" s="21"/>
       <c r="E74" s="21"/>
@@ -6387,23 +6431,23 @@
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
       <c r="I74" s="21" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="J74" s="21"/>
       <c r="K74" s="21" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="L74" s="21"/>
     </row>
-    <row r="75" spans="1:12" ht="30">
+    <row r="75" spans="1:12">
       <c r="A75" s="21" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="D75" s="21"/>
       <c r="E75" s="21"/>
@@ -6411,23 +6455,23 @@
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
       <c r="I75" s="21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J75" s="21"/>
       <c r="K75" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L75" s="21"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" ht="30">
       <c r="A76" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="21"/>
@@ -6435,23 +6479,23 @@
       <c r="G76" s="21"/>
       <c r="H76" s="21"/>
       <c r="I76" s="21" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J76" s="21"/>
       <c r="K76" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L76" s="21"/>
     </row>
-    <row r="77" spans="1:12" ht="30">
+    <row r="77" spans="1:12">
       <c r="A77" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D77" s="21"/>
       <c r="E77" s="21"/>
@@ -6459,23 +6503,23 @@
       <c r="G77" s="21"/>
       <c r="H77" s="21"/>
       <c r="I77" s="21" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J77" s="21"/>
       <c r="K77" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L77" s="21"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D78" s="21"/>
       <c r="E78" s="21"/>
@@ -6483,23 +6527,23 @@
       <c r="G78" s="21"/>
       <c r="H78" s="21"/>
       <c r="I78" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J78" s="21"/>
       <c r="K78" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L78" s="21"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" ht="30">
       <c r="A79" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="D79" s="21"/>
       <c r="E79" s="21"/>
@@ -6507,23 +6551,23 @@
       <c r="G79" s="21"/>
       <c r="H79" s="21"/>
       <c r="I79" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J79" s="21"/>
       <c r="K79" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L79" s="21"/>
     </row>
-    <row r="80" spans="1:12" ht="30">
+    <row r="80" spans="1:12">
       <c r="A80" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="21"/>
@@ -6531,23 +6575,23 @@
       <c r="G80" s="21"/>
       <c r="H80" s="21"/>
       <c r="I80" s="21" t="s">
-        <v>95</v>
+        <v>313</v>
       </c>
       <c r="J80" s="21"/>
       <c r="K80" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L80" s="21"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" ht="30">
       <c r="A81" s="21" t="s">
         <v>111</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D81" s="21"/>
       <c r="E81" s="21"/>
@@ -6555,23 +6599,23 @@
       <c r="G81" s="21"/>
       <c r="H81" s="21"/>
       <c r="I81" s="21" t="s">
-        <v>329</v>
+        <v>112</v>
       </c>
       <c r="J81" s="21"/>
       <c r="K81" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L81" s="21"/>
     </row>
     <row r="82" spans="1:12" ht="30">
       <c r="A82" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
@@ -6579,23 +6623,23 @@
       <c r="G82" s="21"/>
       <c r="H82" s="21"/>
       <c r="I82" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J82" s="21"/>
       <c r="K82" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L82" s="21"/>
     </row>
     <row r="83" spans="1:12" ht="30">
       <c r="A83" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
@@ -6603,23 +6647,23 @@
       <c r="G83" s="21"/>
       <c r="H83" s="21"/>
       <c r="I83" s="21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J83" s="21"/>
       <c r="K83" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L83" s="21"/>
     </row>
-    <row r="84" spans="1:12" ht="30">
+    <row r="84" spans="1:12">
       <c r="A84" s="21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
@@ -6627,23 +6671,23 @@
       <c r="G84" s="21"/>
       <c r="H84" s="21"/>
       <c r="I84" s="21" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="J84" s="21"/>
       <c r="K84" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L84" s="21"/>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" ht="30">
       <c r="A85" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
@@ -6651,23 +6695,23 @@
       <c r="G85" s="21"/>
       <c r="H85" s="21"/>
       <c r="I85" s="21" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="J85" s="21"/>
       <c r="K85" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L85" s="21"/>
     </row>
     <row r="86" spans="1:12" ht="30">
       <c r="A86" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C86" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="B86" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>338</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="21"/>
@@ -6675,23 +6719,23 @@
       <c r="G86" s="21"/>
       <c r="H86" s="21"/>
       <c r="I86" s="21" t="s">
-        <v>132</v>
+        <v>323</v>
       </c>
       <c r="J86" s="21"/>
       <c r="K86" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L86" s="21"/>
     </row>
-    <row r="87" spans="1:12" ht="30">
+    <row r="87" spans="1:12">
       <c r="A87" s="21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>134</v>
+        <v>324</v>
       </c>
       <c r="D87" s="21"/>
       <c r="E87" s="21"/>
@@ -6699,11 +6743,11 @@
       <c r="G87" s="21"/>
       <c r="H87" s="21"/>
       <c r="I87" s="21" t="s">
-        <v>339</v>
+        <v>137</v>
       </c>
       <c r="J87" s="21"/>
       <c r="K87" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L87" s="21"/>
     </row>
@@ -6712,10 +6756,10 @@
         <v>139</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="21"/>
@@ -6723,23 +6767,23 @@
       <c r="G88" s="21"/>
       <c r="H88" s="21"/>
       <c r="I88" s="21" t="s">
-        <v>140</v>
+        <v>323</v>
       </c>
       <c r="J88" s="21"/>
       <c r="K88" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L88" s="21"/>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="D89" s="21"/>
       <c r="E89" s="21"/>
@@ -6747,71 +6791,71 @@
       <c r="G89" s="21"/>
       <c r="H89" s="21"/>
       <c r="I89" s="21" t="s">
-        <v>339</v>
+        <v>142</v>
       </c>
       <c r="J89" s="21"/>
       <c r="K89" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L89" s="21"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="D90" s="21"/>
       <c r="E90" s="21"/>
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
       <c r="H90" s="21"/>
-      <c r="I90" s="21" t="s">
-        <v>145</v>
+      <c r="I90" s="21">
+        <v>0</v>
       </c>
       <c r="J90" s="21"/>
       <c r="K90" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L90" s="21"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" ht="30">
       <c r="A91" s="21" t="s">
         <v>148</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="D91" s="21"/>
       <c r="E91" s="21"/>
       <c r="F91" s="21"/>
       <c r="G91" s="21"/>
       <c r="H91" s="21"/>
-      <c r="I91" s="21">
-        <v>0</v>
+      <c r="I91" s="21" t="s">
+        <v>325</v>
       </c>
       <c r="J91" s="21"/>
       <c r="K91" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L91" s="21"/>
     </row>
     <row r="92" spans="1:12" ht="30">
       <c r="A92" s="21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="D92" s="21"/>
       <c r="E92" s="21"/>
@@ -6819,23 +6863,23 @@
       <c r="G92" s="21"/>
       <c r="H92" s="21"/>
       <c r="I92" s="21" t="s">
-        <v>341</v>
+        <v>153</v>
       </c>
       <c r="J92" s="21"/>
       <c r="K92" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L92" s="21"/>
     </row>
-    <row r="93" spans="1:12" ht="30">
+    <row r="93" spans="1:12">
       <c r="A93" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="D93" s="21"/>
       <c r="E93" s="21"/>
@@ -6843,23 +6887,23 @@
       <c r="G93" s="21"/>
       <c r="H93" s="21"/>
       <c r="I93" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J93" s="21"/>
       <c r="K93" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L93" s="21"/>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="21" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="D94" s="21"/>
       <c r="E94" s="21"/>
@@ -6867,23 +6911,23 @@
       <c r="G94" s="21"/>
       <c r="H94" s="21"/>
       <c r="I94" s="21" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J94" s="21"/>
       <c r="K94" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L94" s="21"/>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="21" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="D95" s="21"/>
       <c r="E95" s="21"/>
@@ -6891,23 +6935,23 @@
       <c r="G95" s="21"/>
       <c r="H95" s="21"/>
       <c r="I95" s="21" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="J95" s="21"/>
       <c r="K95" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L95" s="21"/>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="21" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="D96" s="21"/>
       <c r="E96" s="21"/>
@@ -6915,23 +6959,23 @@
       <c r="G96" s="21"/>
       <c r="H96" s="21"/>
       <c r="I96" s="21" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="J96" s="21"/>
       <c r="K96" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L96" s="21"/>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" ht="30">
       <c r="A97" s="21" t="s">
         <v>181</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="D97" s="21"/>
       <c r="E97" s="21"/>
@@ -6939,23 +6983,23 @@
       <c r="G97" s="21"/>
       <c r="H97" s="21"/>
       <c r="I97" s="21" t="s">
-        <v>182</v>
+        <v>326</v>
       </c>
       <c r="J97" s="21"/>
       <c r="K97" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L97" s="21"/>
     </row>
     <row r="98" spans="1:12" ht="30">
       <c r="A98" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="D98" s="21"/>
       <c r="E98" s="21"/>
@@ -6963,11 +7007,11 @@
       <c r="G98" s="21"/>
       <c r="H98" s="21"/>
       <c r="I98" s="21" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="J98" s="21"/>
       <c r="K98" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L98" s="21"/>
     </row>
@@ -6976,10 +7020,10 @@
         <v>188</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="D99" s="21"/>
       <c r="E99" s="21"/>
@@ -6987,23 +7031,23 @@
       <c r="G99" s="21"/>
       <c r="H99" s="21"/>
       <c r="I99" s="21" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="J99" s="21"/>
       <c r="K99" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L99" s="21"/>
     </row>
     <row r="100" spans="1:12" ht="30">
       <c r="A100" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="D100" s="21"/>
       <c r="E100" s="21"/>
@@ -7011,11 +7055,11 @@
       <c r="G100" s="21"/>
       <c r="H100" s="21"/>
       <c r="I100" s="21" t="s">
-        <v>343</v>
+        <v>153</v>
       </c>
       <c r="J100" s="21"/>
       <c r="K100" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L100" s="21"/>
     </row>
@@ -7024,10 +7068,10 @@
         <v>193</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="D101" s="21"/>
       <c r="E101" s="21"/>
@@ -7035,50 +7079,16 @@
       <c r="G101" s="21"/>
       <c r="H101" s="21"/>
       <c r="I101" s="21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J101" s="21"/>
       <c r="K101" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="L101" s="21"/>
-    </row>
-    <row r="102" spans="1:12" ht="30">
-      <c r="A102" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="B102" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C102" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="21"/>
-      <c r="H102" s="21"/>
-      <c r="I102" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="J102" s="21"/>
-      <c r="K102" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="L102" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="H1:H2"/>
@@ -7087,18 +7097,31 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="39" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7136,25 +7159,25 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="93" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="91" t="s">
+      <c r="F2" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="93" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="11" t="s">
@@ -7162,29 +7185,29 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
       <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
       <c r="H3" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" ht="63">
@@ -7193,14 +7216,14 @@
       </c>
       <c r="B5" s="51"/>
       <c r="C5" s="51" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D5" s="51"/>
       <c r="E5" s="51" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G5" s="51"/>
       <c r="H5" s="51"/>
@@ -7211,14 +7234,14 @@
       </c>
       <c r="B6" s="51"/>
       <c r="C6" s="51" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D6" s="51"/>
       <c r="E6" s="51" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
@@ -7229,14 +7252,14 @@
       </c>
       <c r="B7" s="51"/>
       <c r="C7" s="51" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D7" s="51"/>
       <c r="E7" s="51" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G7" s="51"/>
       <c r="H7" s="51"/>
@@ -7247,11 +7270,11 @@
       </c>
       <c r="B8" s="51"/>
       <c r="C8" s="51" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="51" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="F8" s="51" t="s">
         <v>40</v>
@@ -7265,14 +7288,14 @@
       </c>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="51" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G9" s="51"/>
       <c r="H9" s="51"/>
@@ -7283,14 +7306,14 @@
       </c>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="51" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
@@ -7301,11 +7324,11 @@
       </c>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="51" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="F11" s="51" t="s">
         <v>40</v>
@@ -7333,5 +7356,6 @@
     <mergeCell ref="F2:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>